--- a/data_infraestructura_fisica.xlsx
+++ b/data_infraestructura_fisica.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\1. ANALISTAS - IDEA\2025\Infografía\data_infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CAE9B3-5550-4DDE-A407-A6982C557F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC56AEC-61FC-49E3-A8F9-D53241CFD1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{E72EED06-8F10-40C3-8181-0DBA543D2D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="163">
   <si>
     <t>Sede</t>
   </si>
@@ -227,9 +231,6 @@
     <t>DEPOSITO DE RESIDUOS SOLIDOS URBANOS</t>
   </si>
   <si>
-    <t>Area construida o utilizada (m²)</t>
-  </si>
-  <si>
     <t>Uso</t>
   </si>
   <si>
@@ -510,6 +511,27 @@
   </si>
   <si>
     <t>Año construcción (más reciente)</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de Conjunto Edificaciones</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>acumulado</t>
+  </si>
+  <si>
+    <t>Área construida o utilizada (m²)</t>
+  </si>
+  <si>
+    <t>Superficie total campus (m²)</t>
   </si>
 </sst>
 </file>
@@ -561,12 +583,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -583,6 +609,2670 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acumulado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$C$4:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$4:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BB3-42DA-87BA-9CF05C08BC61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1553461119"/>
+        <c:axId val="1553458239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1553461119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553458239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1553458239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553461119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C00886-B99C-CCE3-30C0-57004E481BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45917.714221527778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="134" xr:uid="{41A4F77E-79E8-428E-AC0E-474D27BA81BC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H135" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Sede" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Conjunto Edificaciones" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Area construida o utilizada (m²)" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4" maxValue="15018"/>
+    </cacheField>
+    <cacheField name="Uso" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Espacio cubierto/descubierto" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Año construcción (más antiguo)" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1939" maxValue="2023" count="44">
+        <n v="1939"/>
+        <n v="1943"/>
+        <n v="1948"/>
+        <n v="1973"/>
+        <n v="1958"/>
+        <n v="1980"/>
+        <n v="1975"/>
+        <n v="1961"/>
+        <n v="1983"/>
+        <n v="1988"/>
+        <n v="1993"/>
+        <n v="1986"/>
+        <n v="1994"/>
+        <n v="1990"/>
+        <n v="1978"/>
+        <n v="2012"/>
+        <n v="2003"/>
+        <n v="2015"/>
+        <s v=""/>
+        <n v="1974"/>
+        <n v="1998"/>
+        <n v="1956"/>
+        <n v="1991"/>
+        <n v="1968"/>
+        <n v="2001"/>
+        <n v="1963"/>
+        <n v="2007"/>
+        <n v="2008"/>
+        <n v="2014"/>
+        <n v="2016"/>
+        <n v="2022"/>
+        <n v="2020"/>
+        <n v="1982"/>
+        <n v="2006"/>
+        <n v="2013"/>
+        <n v="1976"/>
+        <n v="1965"/>
+        <n v="2002"/>
+        <n v="2023"/>
+        <n v="1985"/>
+        <n v="1992"/>
+        <n v="2004"/>
+        <n v="1996"/>
+        <n v="2009"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Año construcción (más reciente)" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1943" maxValue="2023"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="134">
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO CENTRAL"/>
+    <n v="14900"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="0"/>
+    <n v="1978"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO DE LABORATORIOS"/>
+    <n v="5177.1899999999996"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="1"/>
+    <n v="2004"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO JULIUS SIEBER"/>
+    <n v="2528.64"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="2"/>
+    <n v="1948"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="BIENESTAR UNIVERSITARIO (CONSULTORIOS Y OFICINAS)"/>
+    <n v="984.98"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="2"/>
+    <n v="1948"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="GIMNASIO ARCHIVO, SERV.GENERALES( ANT. RESTAURANTE)"/>
+    <n v="1093"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="2"/>
+    <n v="1948"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO SEDE FAC. DE DERECHO (ENFERMERIA)"/>
+    <n v="3758.51"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="1"/>
+    <n v="1997"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="INVERNADERO U.P.T.C."/>
+    <n v="273"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="3"/>
+    <n v="1973"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="TALLERES Y DEPOSITOS SECTOR CARPINTERIA"/>
+    <n v="437.72"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="4"/>
+    <n v="1958"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="GIMNASIO Y COLISEO CUBIERTO"/>
+    <n v="2450.87"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1993"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASAS BARRIO LA COLINA (40)"/>
+    <n v="4350"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="6"/>
+    <n v="1975"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASAS BARRIO MALDONADO (10)"/>
+    <n v="1624"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="7"/>
+    <n v="1961"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="LABORATORIO SOPLADO DE VIDRIO"/>
+    <n v="50.5"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="8"/>
+    <n v="1983"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="DEPOSITO REACTIVOS BIOLO. Y QUIMICA"/>
+    <n v="103.06"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="9"/>
+    <n v="1988"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="GALPONES LABO. DE METALURGIA"/>
+    <n v="1077.72"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="BIBLIOTECA CENTRAL"/>
+    <n v="4991.8500000000004"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="9"/>
+    <n v="1988"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="FACULTAD ESTUDIOS SUPERIORES A DISTANCIA - FESAD"/>
+    <n v="1444.41"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="9"/>
+    <n v="1988"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="LABORATORIO DE BIOPLASMA (HOJA CADUCA)"/>
+    <n v="624.46"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="10"/>
+    <n v="1993"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="SEDE INSTITUTO DE INVESTIG. AGRARIAS - INIAG"/>
+    <n v="210.13"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="10"/>
+    <n v="1993"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASA DEPOSITO DE REACTIVOS"/>
+    <n v="60"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="11"/>
+    <n v="1986"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="INVERNADERO DE BIOPLASMA"/>
+    <n v="230"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="12"/>
+    <n v="1994"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CAFETIN ESTUDIANTES"/>
+    <n v="225.95"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="13"/>
+    <n v="1990"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO INGENIERIA"/>
+    <n v="908"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="10"/>
+    <n v="1993"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="SALON SOCIAL LA COLINA"/>
+    <n v="166"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="14"/>
+    <n v="1978"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICACIÓN INCITEMA"/>
+    <n v="515.64"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="15"/>
+    <n v="2012"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO RECURSOS EDUCATIVOS (ADMINISTRATIVO)"/>
+    <n v="8441.57"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="16"/>
+    <n v="2003"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASETA BOMBA REGADIOS"/>
+    <n v="4"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="17"/>
+    <n v="2015"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="SUBESTACION TRIFASICA"/>
+    <n v="4"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="4"/>
+    <n v="1958"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASETAS PARA CELADURIA ( 6 )"/>
+    <n v="226.6"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASA DEPOSITO DEL VIVERO"/>
+    <n v="60"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="19"/>
+    <n v="1974"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="INSTALACIONES JARDIN BOTANICO"/>
+    <n v="40"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIF. AULAS RAFAEL AZULA"/>
+    <n v="3751.56"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="20"/>
+    <n v="1998"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="PLANTA ELECTRICA"/>
+    <n v="90"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="1"/>
+    <n v="1943"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="INVERNADERO CONTROL BIOLOGICO"/>
+    <n v="50"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASA POSGRADOS Y LABORAT. AGRONOMIA"/>
+    <n v="1620.61"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="21"/>
+    <n v="1956"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASA GRANJA LAS ROSAS"/>
+    <n v="72"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="16"/>
+    <n v="2003"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="AULAS JULIO SIEBER (ANTIGUO COLEGIO)"/>
+    <n v="352.14"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="22"/>
+    <n v="1991"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CENTRO DE SERVICIOS ESTUDIANTILES"/>
+    <n v="922"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="16"/>
+    <n v="2003"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO DE MATEMATICAS"/>
+    <n v="803"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="2"/>
+    <n v="1948"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASA POSGRADO EN ARCHIVISTICA, ARCHIVO HISTÓRICO Y TALLERES ESC. ARTES"/>
+    <n v="232"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="2"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="FUENTE DE COBALTO"/>
+    <n v="274"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="10"/>
+    <n v="1993"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CAMARA DE ESTERILIZACION"/>
+    <n v="31"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="8"/>
+    <n v="1983"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="ESTACION METEREOLOGICA"/>
+    <n v="330"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="23"/>
+    <n v="1968"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASA ANTIGUA ADYACENTE A LA PORTERIA PRINCIPAL"/>
+    <n v="114"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="2"/>
+    <n v="1948"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASA DEL VIVERO OFICINAS Y BODEGAS"/>
+    <n v="540"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="4"/>
+    <n v="1958"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="LABORATORIO MULTIPROPOSITO CLINICA VET."/>
+    <n v="286.35000000000002"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="24"/>
+    <n v="2001"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASETA DPTO. INSUMOS GRANJA AGRONOMÍA"/>
+    <n v="15"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="25"/>
+    <n v="1963"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICACIÓN TRANSMISORES EMISORA - PIRGUA"/>
+    <n v="50"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICACIONES SEDE FACULTAD DE CIENCIAS DE LA SALUD- ANTIGUO HOSPITAL SAN RAFAEL"/>
+    <n v="8116.5"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="ESCENARIOS DEPORTIVOS A CIELO ABIERTO FCS (720*0,25)"/>
+    <n v="180"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Descubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="ESCENARIOS DEPORTIVOS A CIELO ABIERTO (21880*0,25)"/>
+    <n v="5470"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Descubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="AREA GRANJA EXPERIMENTAL Y PRACTICA (9600*0,25)"/>
+    <n v="2400"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Descubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CLINICA VETERINARIA DE GRANDES M.V.Z. /AMPLIACIÓN C. VET."/>
+    <n v="990"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Sin datos"/>
+    <x v="26"/>
+    <n v="2017"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICACIÓN PARA MÚSICA Y ARTES"/>
+    <n v="1520.75"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Sin datos"/>
+    <x v="27"/>
+    <n v="2008"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO RESTAURANTE Y CAFETERÌA ESTUDIANTIL"/>
+    <n v="2925"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="15"/>
+    <n v="2012"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO CENTRO DE LABORATORIOS"/>
+    <n v="15018"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="15"/>
+    <n v="2012"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO DE ARTES"/>
+    <n v="3362.5"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="28"/>
+    <n v="2014"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO AULAS -HUNZA -TUNJA"/>
+    <n v="5615.28"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="29"/>
+    <n v="2016"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="EDIFICIO DE POSGRADOS TUNJA"/>
+    <n v="10911"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="30"/>
+    <n v="2022"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="CASETA CAFETIN PARA EL CENTRO DE LABORATORIOS-UPTC SEDE CENTRAL"/>
+    <n v="16"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="31"/>
+    <n v="2020"/>
+  </r>
+  <r>
+    <s v="Sede Tunja"/>
+    <s v="DEPOSITO DE RESIDUOS SOLIDOS URBANOS"/>
+    <n v="64.5"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="31"/>
+    <n v="2020"/>
+  </r>
+  <r>
+    <s v="Seccional Chiquinquirá"/>
+    <s v="EDIFICIO ADTIVO. AULAS Y LABORATORIOS "/>
+    <n v="2080"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="32"/>
+    <n v="1982"/>
+  </r>
+  <r>
+    <s v="Seccional Chiquinquirá"/>
+    <s v="EDIFICIO LABORATORIOS DE GEMOLOGIA"/>
+    <n v="1102"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="20"/>
+    <n v="1998"/>
+  </r>
+  <r>
+    <s v="Seccional Chiquinquirá"/>
+    <s v="EDIFICIO CENTRO DE SERVICIOS Y AUDITORIO "/>
+    <n v="1486"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="33"/>
+    <n v="2006"/>
+  </r>
+  <r>
+    <s v="Seccional Chiquinquirá"/>
+    <s v="CASETA DE PORTERIA"/>
+    <n v="43.85"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Chiquinquirá"/>
+    <s v="EDIFICIO AULAS INTELIGENTES"/>
+    <n v="775.48"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="34"/>
+    <n v="2013"/>
+  </r>
+  <r>
+    <s v="Seccional Chiquinquirá"/>
+    <s v="ESCENARIOS DEPORTIVOS A CIELO ABIERTO (7720*0,25)"/>
+    <n v="1930"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Descubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="PABELLON DE TALLERES"/>
+    <n v="3500"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="35"/>
+    <n v="1976"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="EDIFICACION AULAS Y OFICINAS ADTIVAS."/>
+    <n v="2850"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="14"/>
+    <n v="1978"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="BIBLIOTECA SECCIONAL"/>
+    <n v="2241"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="32"/>
+    <n v="1982"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="CAFETERIA ESTUDIANTES"/>
+    <n v="674"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="13"/>
+    <n v="1990"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="CASETA SEDE APUB"/>
+    <n v="9"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="SUBESTACION ELECTRICA"/>
+    <n v="6"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="CASETA PORTERIA ACCESO VEHICULAR"/>
+    <n v="58.7"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="CENTRO INVESTIG. AGROINDUSTRIAL BIOTECNOLOGIA SECCIONAL"/>
+    <n v="270"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="12"/>
+    <n v="1994"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="CUARTO DE BASURAS SECCIONAL"/>
+    <n v="6"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="GIMNASIO Y TEATRO LOS FUNDADORES SECC. DUITAMA"/>
+    <n v="525"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="36"/>
+    <n v="1965"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="EDIFICIO ADMINISTRATIVO DE LA SECCIONAL (NUEVO)"/>
+    <n v="2400"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="37"/>
+    <n v="2002"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="EDIFICIO BIENESTAR ESTUDIANTIL"/>
+    <n v="263"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="20"/>
+    <n v="1998"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="BLOQUE DE AULAS (EN TRES PISOS)"/>
+    <n v="1893"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="CAFETERIA DE PROFESORES Y CUBICULOS"/>
+    <n v="705"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="36"/>
+    <n v="1965"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="LABORATORIO DE LÁCTEOS"/>
+    <n v="313.12"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="15"/>
+    <n v="2012"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="COLISEO VOLEIBOL"/>
+    <n v="415.25"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="EDIFICIO AULAS -DUITAMA"/>
+    <n v="5498"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="29"/>
+    <n v="2016"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="NUEVO EDIFICIO BIENESTAR UNIVERSITARIO DUITAMA"/>
+    <n v="599.63"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Sin datos"/>
+    <x v="38"/>
+    <n v="2023"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="EDIFICIO DE POSGRADOS - CRU"/>
+    <n v="8009.47"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Sin datos"/>
+    <x v="38"/>
+    <n v="2023"/>
+  </r>
+  <r>
+    <s v="Seccional Duitama"/>
+    <s v="ESCENARIOS DEPORTIVOS A CIELO ABIERTO (8944*0,25)"/>
+    <n v="2236"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Descubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Museo y Parque Arqueológico Sogamoso"/>
+    <s v="CASA DEL MUSEO"/>
+    <n v="1155.2"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Museo y Parque Arqueológico Sogamoso"/>
+    <s v="TEMPLO DEL SOL"/>
+    <n v="300"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Museo y Parque Arqueológico Sogamoso"/>
+    <s v="KIOSCOS DEL MUSEO (10)"/>
+    <n v="250"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Museo y Parque Arqueológico Sogamoso"/>
+    <s v="CASA DEPOSITO Y BODEGA"/>
+    <n v="150"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Museo y Parque Arqueológico Sogamoso"/>
+    <s v="AREA DE LABORATORIOS"/>
+    <n v="100"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICIO AULAS 1"/>
+    <n v="1377"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="19"/>
+    <n v="1974"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICIO AULAS 2"/>
+    <n v="1377"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="19"/>
+    <n v="1974"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICIO AULAS 3"/>
+    <n v="230"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="20"/>
+    <n v="1998"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICIO DIRECCIONES DE ESCUELA Y REGISTRO"/>
+    <n v="1804"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="MODULO DE LABORATORIOS (UN PISO)"/>
+    <n v="2353"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="39"/>
+    <n v="1985"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="TALLER DE MANTENIMIENTO"/>
+    <n v="42"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICIO PARA BIBLIOTECA Y ADMINISTRATIVO"/>
+    <n v="3087.8"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="40"/>
+    <n v="1992"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="NUEVO GIMNASIO, CULTURA Y ALM. DEPORTES"/>
+    <n v="330"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="PORTERIA ACCESO PEATONAL COSTADO SUR"/>
+    <n v="45.15"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="PORTERIA ACCESO VEHICULAR"/>
+    <n v="45.85"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICIO AULAS ARTES"/>
+    <n v="1452"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="41"/>
+    <n v="2004"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="KIOSCOS (18)"/>
+    <n v="72"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="CAFETERIA SECC. SOGAMOSO"/>
+    <n v="740"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="42"/>
+    <n v="1996"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="ESCENARIOS DEPORTIVOS A CIELO ABIERTO (7540X0,25)"/>
+    <n v="1885"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Descubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICACIÓN REGISTRO Y ADMISIONES"/>
+    <n v="260.60000000000002"/>
+    <s v="Sin datos"/>
+    <s v="Sin datos"/>
+    <x v="43"/>
+    <n v="2009"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICACIÓN RESTAURANTE"/>
+    <n v="1047.3"/>
+    <s v="Sin datos"/>
+    <s v="Sin datos"/>
+    <x v="43"/>
+    <n v="2009"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="NUEVO EDIFICIO DE LABORATORIOS(4PISOS)"/>
+    <n v="1468.3"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="15"/>
+    <n v="2012"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="EDIFICIO AULAS SOGAMOSO"/>
+    <n v="4711"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="17"/>
+    <n v="2015"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="BODEGA PARA ALMACENAMIENTO DE MUESTRAS GEOLÓGICAS"/>
+    <n v="81.849999999999994"/>
+    <s v="Sin datos"/>
+    <s v="Cubierto"/>
+    <x v="30"/>
+    <n v="2022"/>
+  </r>
+  <r>
+    <s v="Seccional Sogamoso"/>
+    <s v="SALA DE INVESTIGACIÓN PARA EL LABORATORIO DE SOLUCIONES ENERGÉTICAS"/>
+    <n v="140"/>
+    <s v="Sin datos"/>
+    <s v="Cubierto"/>
+    <x v="30"/>
+    <n v="2022"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="CASA  VIVIENDA PARA ESTUDIANTES Y ADMINISTRATIVOS(NUEVO)"/>
+    <n v="361.97"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="38"/>
+    <n v="2023"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="AULA MULTIPLE"/>
+    <n v="120"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="CASA DEPOSITOS"/>
+    <n v="120"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="GALPON PARA MAQUINARIA (PRIMER PISO) Y 3 CUARTOS PARA PASANTES (SEGUNDO PISO)"/>
+    <n v="195"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="AULAS DE CLASE (3) Y SALA DE CIRUGIA (1)"/>
+    <n v="201"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="BODEGAS MAQUINARIA Y SEMILLAS"/>
+    <n v="274"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="ESTACION CLIMATOLOGICA"/>
+    <n v="150"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="CASA DEL MAYORDOMO"/>
+    <n v="70"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="INSTALACION PERRERAS"/>
+    <n v="15"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="12"/>
+    <n v="1994"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="AREA GRANJA EXPERIMENTAL Y PRACTICA (19200*0,25)"/>
+    <n v="4800"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Descubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="APRISCO OVINO CAPRINOY PLANTA DE LABORATORIO (201.00+42.80)"/>
+    <n v="243.8"/>
+    <s v="Sin datos"/>
+    <s v="Cubierto"/>
+    <x v="27"/>
+    <n v="2008"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="GALPÓN AVÍCOLA PARA PONEDORA Y GALPÓN PARA POLLO DE ENGORDE (82.00+82.00)"/>
+    <n v="164"/>
+    <s v="Sin datos"/>
+    <s v="Cubierto"/>
+    <x v="27"/>
+    <n v="2008"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="CENTRO DE MEJORAMIENTOGENÉTICO -LABORATORIO DE REPRODUCCIÓN ANIMAL-ESTABLO (130.00+204,00)"/>
+    <n v="334"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Descubierto"/>
+    <x v="27"/>
+    <n v="2008"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="EDIFICIO ADMINISTRATIVO"/>
+    <n v="451"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="15"/>
+    <n v="2012"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="EDIFICACIÓN PROYECTO DE PORCINOS"/>
+    <n v="252"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="28"/>
+    <n v="2014"/>
+  </r>
+  <r>
+    <s v="Granja Tunguavita"/>
+    <s v="BODEGA PARA ALMACENAMIENTO DE COMBUSTIBLES EN LA GRANJA TUNGUAVITA- PAIPA"/>
+    <n v="18.75"/>
+    <s v="Sin datos"/>
+    <s v="Cubierto"/>
+    <x v="5"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Instalaciones El Infiernito"/>
+    <s v="CASA ADMON. Y OFICINAS (NUEVO)"/>
+    <n v="220.07"/>
+    <s v="Actividades docentes, administrativas e investigación"/>
+    <s v="Cubierto"/>
+    <x v="30"/>
+    <n v="2022"/>
+  </r>
+  <r>
+    <s v="Instalaciones El Infiernito"/>
+    <s v="TUMBA DOLMENICA"/>
+    <n v="10"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Cubierto"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+  <r>
+    <s v="Sede Regional Garagoa"/>
+    <s v="BLOQUE DE AULAS"/>
+    <n v="418"/>
+    <s v="Sin datos"/>
+    <s v="Cubierto"/>
+    <x v="37"/>
+    <n v="2002"/>
+  </r>
+  <r>
+    <s v="Sede Regional Garagoa"/>
+    <s v="BLOQUE ADMINISTRATIVO"/>
+    <n v="303"/>
+    <s v="Sin datos"/>
+    <s v="Cubierto"/>
+    <x v="37"/>
+    <n v="2002"/>
+  </r>
+  <r>
+    <s v="Casa de Bogotá - UPTC"/>
+    <s v="CASA DE BOGOTÁ - UPTC"/>
+    <n v="860"/>
+    <s v="Sin datos"/>
+    <s v="Sin datos"/>
+    <x v="38"/>
+    <n v="2023"/>
+  </r>
+  <r>
+    <s v="Edificación Puerto Boyacá"/>
+    <s v="EDIFICACIÓN PUERTO BOYACÁ"/>
+    <n v="2633.11"/>
+    <s v="Actividades deportivas,bienestar y otras"/>
+    <s v="Sin datos"/>
+    <x v="38"/>
+    <n v="2023"/>
+  </r>
+  <r>
+    <s v="Edificación IE Soatá"/>
+    <s v="EDIFICACIÓN IE SOATÁ"/>
+    <n v="2273.8000000000002"/>
+    <s v="Sin datos"/>
+    <s v="Sin datos"/>
+    <x v="18"/>
+    <s v=""/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86CFE8A7-9FA6-4B64-810D-EDA1BE14E767}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="45">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="35"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="8"/>
+        <item x="39"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="40"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="42"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="37"/>
+        <item x="16"/>
+        <item x="41"/>
+        <item x="33"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="43"/>
+        <item x="15"/>
+        <item x="34"/>
+        <item x="28"/>
+        <item x="17"/>
+        <item x="29"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="38"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="45">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Conjunto Edificaciones" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,3128 +3592,3922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F1DB7-6CF6-4454-9CF0-DDFBF8B9889F}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="2" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>14900</v>
       </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
       <c r="E2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2">
         <v>1939</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1978</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>5177.1899999999996</v>
       </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
       <c r="E3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3">
         <v>1943</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>2528.64</v>
       </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
       <c r="E4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4">
-        <v>1948</v>
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
       </c>
       <c r="G4">
         <v>1948</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>984.98</v>
       </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
       <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5">
-        <v>1948</v>
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
       </c>
       <c r="G5">
         <v>1948</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>1093</v>
       </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
       <c r="E6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6">
-        <v>1948</v>
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
       </c>
       <c r="G6">
         <v>1948</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>3758.51</v>
       </c>
-      <c r="D7" t="s">
-        <v>147</v>
-      </c>
       <c r="E7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7">
         <v>1943</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>273</v>
       </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
       <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8">
-        <v>1973</v>
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
       </c>
       <c r="G8">
         <v>1973</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>437.72</v>
       </c>
-      <c r="D9" t="s">
-        <v>147</v>
-      </c>
       <c r="E9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9">
-        <v>1958</v>
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
       </c>
       <c r="G9">
         <v>1958</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>2450.87</v>
       </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
       <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10">
         <v>1980</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1993</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>4350</v>
       </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
       <c r="E11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11">
-        <v>1975</v>
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
       </c>
       <c r="G11">
         <v>1975</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>1624</v>
       </c>
-      <c r="D12" t="s">
-        <v>148</v>
-      </c>
       <c r="E12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12">
-        <v>1961</v>
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
       </c>
       <c r="G12">
         <v>1961</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>50.5</v>
       </c>
-      <c r="D13" t="s">
-        <v>147</v>
-      </c>
       <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13">
-        <v>1983</v>
+        <v>146</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
       </c>
       <c r="G13">
         <v>1983</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>103.06</v>
       </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
       <c r="E14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14">
-        <v>1988</v>
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
       </c>
       <c r="G14">
         <v>1988</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>1077.72</v>
       </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
       <c r="E15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15">
-        <v>1980</v>
+        <v>146</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
       </c>
       <c r="G15">
         <v>1980</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>4991.8500000000004</v>
       </c>
-      <c r="D16" t="s">
-        <v>147</v>
-      </c>
       <c r="E16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16">
-        <v>1988</v>
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
       </c>
       <c r="G16">
         <v>1988</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>1444.41</v>
       </c>
-      <c r="D17" t="s">
-        <v>147</v>
-      </c>
       <c r="E17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17">
-        <v>1988</v>
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
       </c>
       <c r="G17">
         <v>1988</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>624.46</v>
       </c>
-      <c r="D18" t="s">
-        <v>147</v>
-      </c>
       <c r="E18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18">
-        <v>1993</v>
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
       </c>
       <c r="G18">
         <v>1993</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>210.13</v>
       </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
       <c r="E19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19">
-        <v>1993</v>
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
       </c>
       <c r="G19">
         <v>1993</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
-        <v>147</v>
-      </c>
       <c r="E20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20">
-        <v>1986</v>
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
       </c>
       <c r="G20">
         <v>1986</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>230</v>
       </c>
-      <c r="D21" t="s">
-        <v>147</v>
-      </c>
       <c r="E21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21">
-        <v>1994</v>
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
       </c>
       <c r="G21">
         <v>1994</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>225.95</v>
       </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
       <c r="E22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22">
-        <v>1990</v>
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
       </c>
       <c r="G22">
         <v>1990</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>908</v>
       </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
       <c r="E23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23">
-        <v>1993</v>
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
       </c>
       <c r="G23">
         <v>1993</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>166</v>
       </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
       <c r="E24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24">
-        <v>1978</v>
+        <v>146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
       </c>
       <c r="G24">
         <v>1978</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>515.64</v>
       </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
       <c r="E25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25">
-        <v>2012</v>
+        <v>146</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
       </c>
       <c r="G25">
         <v>2012</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>8441.57</v>
       </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
       <c r="E26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26">
-        <v>2003</v>
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
       </c>
       <c r="G26">
         <v>2003</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
       <c r="E27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27">
-        <v>2015</v>
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
       </c>
       <c r="G27">
         <v>2015</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
       <c r="E28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28">
-        <v>1958</v>
+        <v>146</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
       </c>
       <c r="G28">
         <v>1958</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>226.6</v>
       </c>
-      <c r="D29" t="s">
-        <v>147</v>
-      </c>
       <c r="E29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
-        <v>147</v>
-      </c>
       <c r="E30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30">
-        <v>1974</v>
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
       </c>
       <c r="G30">
         <v>1974</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>40</v>
       </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
       <c r="E31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>3751.56</v>
       </c>
-      <c r="D32" t="s">
-        <v>147</v>
-      </c>
       <c r="E32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32">
-        <v>1998</v>
+        <v>146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
       </c>
       <c r="G32">
         <v>1998</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>90</v>
       </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
       <c r="E33" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33">
-        <v>1943</v>
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>150</v>
       </c>
       <c r="G33">
         <v>1943</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
-        <v>147</v>
-      </c>
       <c r="E34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>1620.61</v>
       </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
       <c r="E35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35">
-        <v>1956</v>
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
       </c>
       <c r="G35">
         <v>1956</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>72</v>
       </c>
-      <c r="D36" t="s">
-        <v>147</v>
-      </c>
       <c r="E36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36">
-        <v>2003</v>
+        <v>146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
       </c>
       <c r="G36">
         <v>2003</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>352.14</v>
       </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
       <c r="E37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37">
-        <v>1991</v>
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
       </c>
       <c r="G37">
         <v>1991</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>922</v>
       </c>
-      <c r="D38" t="s">
-        <v>148</v>
-      </c>
       <c r="E38" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38">
-        <v>2003</v>
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
       </c>
       <c r="G38">
         <v>2003</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>803</v>
       </c>
-      <c r="D39" t="s">
-        <v>147</v>
-      </c>
       <c r="E39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39">
-        <v>1948</v>
+        <v>146</v>
+      </c>
+      <c r="F39" t="s">
+        <v>150</v>
       </c>
       <c r="G39">
         <v>1948</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>232</v>
       </c>
-      <c r="D40" t="s">
-        <v>147</v>
-      </c>
       <c r="E40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40">
+        <v>146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40">
         <v>1948</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>274</v>
       </c>
-      <c r="D41" t="s">
-        <v>147</v>
-      </c>
       <c r="E41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41">
-        <v>1993</v>
+        <v>146</v>
+      </c>
+      <c r="F41" t="s">
+        <v>150</v>
       </c>
       <c r="G41">
         <v>1993</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
-        <v>147</v>
-      </c>
       <c r="E42" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42">
-        <v>1983</v>
+        <v>146</v>
+      </c>
+      <c r="F42" t="s">
+        <v>150</v>
       </c>
       <c r="G42">
         <v>1983</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>330</v>
       </c>
-      <c r="D43" t="s">
-        <v>147</v>
-      </c>
       <c r="E43" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43">
-        <v>1968</v>
+        <v>146</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
       </c>
       <c r="G43">
         <v>1968</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>114</v>
       </c>
-      <c r="D44" t="s">
-        <v>147</v>
-      </c>
       <c r="E44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44">
-        <v>1948</v>
+        <v>146</v>
+      </c>
+      <c r="F44" t="s">
+        <v>150</v>
       </c>
       <c r="G44">
         <v>1948</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>540</v>
       </c>
-      <c r="D45" t="s">
-        <v>147</v>
-      </c>
       <c r="E45" t="s">
-        <v>151</v>
-      </c>
-      <c r="F45">
-        <v>1958</v>
+        <v>146</v>
+      </c>
+      <c r="F45" t="s">
+        <v>150</v>
       </c>
       <c r="G45">
         <v>1958</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>286.35000000000002</v>
       </c>
-      <c r="D46" t="s">
-        <v>147</v>
-      </c>
       <c r="E46" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46">
-        <v>2001</v>
+        <v>146</v>
+      </c>
+      <c r="F46" t="s">
+        <v>150</v>
       </c>
       <c r="G46">
         <v>2001</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>15</v>
       </c>
-      <c r="D47" t="s">
-        <v>147</v>
-      </c>
       <c r="E47" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47">
-        <v>1963</v>
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
       </c>
       <c r="G47">
         <v>1963</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>50</v>
       </c>
-      <c r="D48" t="s">
-        <v>147</v>
-      </c>
       <c r="E48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>8116.5</v>
       </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
       <c r="E49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>180</v>
       </c>
-      <c r="D50" t="s">
-        <v>148</v>
-      </c>
       <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>5470</v>
       </c>
-      <c r="D51" t="s">
-        <v>148</v>
-      </c>
       <c r="E51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="4">
+      <c r="D52" s="4">
         <v>2400</v>
       </c>
-      <c r="D52" t="s">
-        <v>147</v>
-      </c>
       <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D53" s="4">
         <v>990</v>
       </c>
-      <c r="D53" t="s">
-        <v>147</v>
-      </c>
       <c r="E53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53">
+        <v>146</v>
+      </c>
+      <c r="F53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53">
         <v>2007</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="4">
+      <c r="D54" s="4">
         <v>1520.75</v>
       </c>
-      <c r="D54" t="s">
-        <v>147</v>
-      </c>
       <c r="E54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54">
-        <v>2008</v>
+        <v>146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>148</v>
       </c>
       <c r="G54">
         <v>2008</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="4">
+      <c r="D55" s="4">
         <v>2925</v>
       </c>
-      <c r="D55" t="s">
-        <v>148</v>
-      </c>
       <c r="E55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F55">
-        <v>2012</v>
+        <v>147</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
       </c>
       <c r="G55">
         <v>2012</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="4">
+      <c r="D56" s="4">
         <v>15018</v>
       </c>
-      <c r="D56" t="s">
-        <v>147</v>
-      </c>
       <c r="E56" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56">
-        <v>2012</v>
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>150</v>
       </c>
       <c r="G56">
         <v>2012</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="4">
+      <c r="D57" s="4">
         <v>3362.5</v>
       </c>
-      <c r="D57" t="s">
-        <v>147</v>
-      </c>
       <c r="E57" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57">
-        <v>2014</v>
+        <v>146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>150</v>
       </c>
       <c r="G57">
         <v>2014</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="4">
+      <c r="D58" s="4">
         <v>5615.28</v>
       </c>
-      <c r="D58" t="s">
-        <v>147</v>
-      </c>
       <c r="E58" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58">
-        <v>2016</v>
+        <v>146</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
       </c>
       <c r="G58">
         <v>2016</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="4">
+      <c r="D59" s="4">
         <v>10911</v>
       </c>
-      <c r="D59" t="s">
-        <v>147</v>
-      </c>
       <c r="E59" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59">
-        <v>2022</v>
+        <v>146</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
       </c>
       <c r="G59">
         <v>2022</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="4">
+      <c r="D60" s="4">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
-        <v>147</v>
-      </c>
       <c r="E60" t="s">
-        <v>151</v>
-      </c>
-      <c r="F60">
-        <v>2020</v>
+        <v>146</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
       </c>
       <c r="G60">
         <v>2020</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="4">
+      <c r="D61" s="4">
         <v>64.5</v>
       </c>
-      <c r="D61" t="s">
-        <v>147</v>
-      </c>
       <c r="E61" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61">
-        <v>2020</v>
+        <v>146</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
       </c>
       <c r="G61">
         <v>2020</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>2080</v>
       </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
       <c r="E62" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62">
-        <v>1982</v>
+        <v>146</v>
+      </c>
+      <c r="F62" t="s">
+        <v>150</v>
       </c>
       <c r="G62">
         <v>1982</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="4">
+        <v>65</v>
+      </c>
+      <c r="D63" s="4">
         <v>1102</v>
       </c>
-      <c r="D63" t="s">
-        <v>147</v>
-      </c>
       <c r="E63" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63">
-        <v>1998</v>
+        <v>146</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
       </c>
       <c r="G63">
         <v>1998</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="4">
+        <v>66</v>
+      </c>
+      <c r="D64" s="4">
         <v>1486</v>
       </c>
-      <c r="D64" t="s">
-        <v>148</v>
-      </c>
       <c r="E64" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64">
-        <v>2006</v>
+        <v>147</v>
+      </c>
+      <c r="F64" t="s">
+        <v>150</v>
       </c>
       <c r="G64">
         <v>2006</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="4">
+        <v>43.85</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="4">
-        <v>43.85</v>
-      </c>
-      <c r="D65" t="s">
-        <v>147</v>
-      </c>
-      <c r="E65" t="s">
-        <v>151</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="4">
+      <c r="D66" s="4">
         <v>775.48</v>
       </c>
-      <c r="D66" t="s">
-        <v>147</v>
-      </c>
       <c r="E66" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66">
-        <v>2013</v>
+        <v>146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>150</v>
       </c>
       <c r="G66">
         <v>2013</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1930</v>
+      </c>
+      <c r="E67" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="4">
-        <v>1930</v>
-      </c>
-      <c r="D67" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
       <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="4">
+        <v>74</v>
+      </c>
+      <c r="D68" s="4">
         <v>3500</v>
       </c>
-      <c r="D68" t="s">
-        <v>147</v>
-      </c>
       <c r="E68" t="s">
-        <v>151</v>
-      </c>
-      <c r="F68">
-        <v>1976</v>
+        <v>146</v>
+      </c>
+      <c r="F68" t="s">
+        <v>150</v>
       </c>
       <c r="G68">
         <v>1976</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="4">
+        <v>75</v>
+      </c>
+      <c r="D69" s="4">
         <v>2850</v>
       </c>
-      <c r="D69" t="s">
-        <v>147</v>
-      </c>
       <c r="E69" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69">
-        <v>1978</v>
+        <v>146</v>
+      </c>
+      <c r="F69" t="s">
+        <v>150</v>
       </c>
       <c r="G69">
         <v>1978</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="4">
+        <v>76</v>
+      </c>
+      <c r="D70" s="4">
         <v>2241</v>
       </c>
-      <c r="D70" t="s">
-        <v>147</v>
-      </c>
       <c r="E70" t="s">
-        <v>151</v>
-      </c>
-      <c r="F70">
-        <v>1982</v>
+        <v>146</v>
+      </c>
+      <c r="F70" t="s">
+        <v>150</v>
       </c>
       <c r="G70">
         <v>1982</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="4">
+        <v>81</v>
+      </c>
+      <c r="D71" s="4">
         <v>674</v>
       </c>
-      <c r="D71" t="s">
-        <v>148</v>
-      </c>
       <c r="E71" t="s">
-        <v>151</v>
-      </c>
-      <c r="F71">
-        <v>1990</v>
+        <v>147</v>
+      </c>
+      <c r="F71" t="s">
+        <v>150</v>
       </c>
       <c r="G71">
         <v>1990</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="4">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="4">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="D73" s="4">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="4">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="D74" s="4">
         <v>58.7</v>
       </c>
-      <c r="D74" t="s">
-        <v>147</v>
-      </c>
       <c r="E74" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
+        <v>150</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="4">
+        <v>82</v>
+      </c>
+      <c r="D75" s="4">
         <v>270</v>
       </c>
-      <c r="D75" t="s">
-        <v>147</v>
-      </c>
       <c r="E75" t="s">
-        <v>151</v>
-      </c>
-      <c r="F75">
-        <v>1994</v>
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
+        <v>150</v>
       </c>
       <c r="G75">
         <v>1994</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="4">
+        <v>80</v>
+      </c>
+      <c r="D76" s="4">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="4">
+        <v>525</v>
+      </c>
+      <c r="E77" t="s">
         <v>147</v>
       </c>
-      <c r="E76" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="4">
-        <v>525</v>
-      </c>
-      <c r="D77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E77" t="s">
-        <v>151</v>
-      </c>
-      <c r="F77">
-        <v>1965</v>
+      <c r="F77" t="s">
+        <v>150</v>
       </c>
       <c r="G77">
         <v>1965</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="4">
+        <v>84</v>
+      </c>
+      <c r="D78" s="4">
         <v>2400</v>
       </c>
-      <c r="D78" t="s">
-        <v>147</v>
-      </c>
       <c r="E78" t="s">
-        <v>151</v>
-      </c>
-      <c r="F78">
-        <v>2002</v>
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
+        <v>150</v>
       </c>
       <c r="G78">
         <v>2002</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="4">
+        <v>85</v>
+      </c>
+      <c r="D79" s="4">
         <v>263</v>
       </c>
-      <c r="D79" t="s">
-        <v>148</v>
-      </c>
       <c r="E79" t="s">
-        <v>151</v>
-      </c>
-      <c r="F79">
-        <v>1998</v>
+        <v>147</v>
+      </c>
+      <c r="F79" t="s">
+        <v>150</v>
       </c>
       <c r="G79">
         <v>1998</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="4">
+        <v>86</v>
+      </c>
+      <c r="D80" s="4">
         <v>1893</v>
       </c>
-      <c r="D80" t="s">
-        <v>147</v>
-      </c>
       <c r="E80" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80">
-        <v>1980</v>
+        <v>146</v>
+      </c>
+      <c r="F80" t="s">
+        <v>150</v>
       </c>
       <c r="G80">
         <v>1980</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" s="4">
+        <v>87</v>
+      </c>
+      <c r="D81" s="4">
         <v>705</v>
       </c>
-      <c r="D81" t="s">
-        <v>148</v>
-      </c>
       <c r="E81" t="s">
-        <v>151</v>
-      </c>
-      <c r="F81">
-        <v>1965</v>
+        <v>147</v>
+      </c>
+      <c r="F81" t="s">
+        <v>150</v>
       </c>
       <c r="G81">
         <v>1965</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="4">
+        <v>88</v>
+      </c>
+      <c r="D82" s="4">
         <v>313.12</v>
       </c>
-      <c r="D82" t="s">
-        <v>147</v>
-      </c>
       <c r="E82" t="s">
-        <v>151</v>
-      </c>
-      <c r="F82">
-        <v>2012</v>
+        <v>146</v>
+      </c>
+      <c r="F82" t="s">
+        <v>150</v>
       </c>
       <c r="G82">
         <v>2012</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="4">
+        <v>415.25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
         <v>71</v>
       </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="4">
-        <v>415.25</v>
-      </c>
-      <c r="D83" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" t="s">
-        <v>151</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>5498</v>
       </c>
-      <c r="D84" t="s">
-        <v>147</v>
-      </c>
       <c r="E84" t="s">
-        <v>151</v>
-      </c>
-      <c r="F84">
-        <v>2016</v>
+        <v>146</v>
+      </c>
+      <c r="F84" t="s">
+        <v>150</v>
       </c>
       <c r="G84">
         <v>2016</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="4">
+        <v>72</v>
+      </c>
+      <c r="D85" s="4">
         <v>599.63</v>
       </c>
-      <c r="D85" t="s">
-        <v>147</v>
-      </c>
       <c r="E85" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85">
-        <v>2023</v>
+        <v>146</v>
+      </c>
+      <c r="F85" t="s">
+        <v>148</v>
       </c>
       <c r="G85">
         <v>2023</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="4">
+        <v>73</v>
+      </c>
+      <c r="D86" s="4">
         <v>8009.47</v>
       </c>
-      <c r="D86" t="s">
-        <v>147</v>
-      </c>
       <c r="E86" t="s">
-        <v>149</v>
-      </c>
-      <c r="F86">
-        <v>2023</v>
+        <v>146</v>
+      </c>
+      <c r="F86" t="s">
+        <v>148</v>
       </c>
       <c r="G86">
         <v>2023</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2236</v>
+      </c>
+      <c r="E87" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" t="s">
+        <v>151</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="4">
-        <v>2236</v>
-      </c>
-      <c r="D87" t="s">
-        <v>148</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1155.2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88" t="s">
+        <v>150</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="H88" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="4">
-        <v>1155.2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" t="s">
-        <v>151</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="D89" s="4">
+        <v>300</v>
+      </c>
+      <c r="E89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" t="s">
+        <v>150</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="4">
-        <v>300</v>
-      </c>
-      <c r="D89" t="s">
-        <v>148</v>
-      </c>
-      <c r="E89" t="s">
-        <v>151</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="D90" s="4">
+        <v>250</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="4">
-        <v>250</v>
-      </c>
-      <c r="D90" t="s">
-        <v>148</v>
-      </c>
-      <c r="E90" t="s">
-        <v>151</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="D91" s="4">
+        <v>150</v>
+      </c>
+      <c r="E91" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" t="s">
+        <v>150</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="4">
-        <v>150</v>
-      </c>
-      <c r="D91" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" t="s">
-        <v>151</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="D92" s="4">
+        <v>100</v>
+      </c>
+      <c r="E92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="4">
+      <c r="B93" t="s">
         <v>100</v>
       </c>
-      <c r="D92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" t="s">
-        <v>151</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" s="4">
+      <c r="D93" s="4">
         <v>1377</v>
       </c>
-      <c r="D93" t="s">
-        <v>147</v>
-      </c>
       <c r="E93" t="s">
-        <v>151</v>
-      </c>
-      <c r="F93">
-        <v>1974</v>
+        <v>146</v>
+      </c>
+      <c r="F93" t="s">
+        <v>150</v>
       </c>
       <c r="G93">
         <v>1974</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="4">
+        <v>101</v>
+      </c>
+      <c r="D94" s="4">
         <v>1377</v>
       </c>
-      <c r="D94" t="s">
-        <v>147</v>
-      </c>
       <c r="E94" t="s">
-        <v>151</v>
-      </c>
-      <c r="F94">
-        <v>1974</v>
+        <v>146</v>
+      </c>
+      <c r="F94" t="s">
+        <v>150</v>
       </c>
       <c r="G94">
         <v>1974</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="4">
+        <v>102</v>
+      </c>
+      <c r="D95" s="4">
         <v>230</v>
       </c>
-      <c r="D95" t="s">
-        <v>147</v>
-      </c>
       <c r="E95" t="s">
-        <v>151</v>
-      </c>
-      <c r="F95">
-        <v>1998</v>
+        <v>146</v>
+      </c>
+      <c r="F95" t="s">
+        <v>150</v>
       </c>
       <c r="G95">
         <v>1998</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="4">
+        <v>103</v>
+      </c>
+      <c r="D96" s="4">
         <v>1804</v>
       </c>
-      <c r="D96" t="s">
-        <v>147</v>
-      </c>
       <c r="E96" t="s">
-        <v>151</v>
-      </c>
-      <c r="F96">
-        <v>1980</v>
+        <v>146</v>
+      </c>
+      <c r="F96" t="s">
+        <v>150</v>
       </c>
       <c r="G96">
         <v>1980</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="4">
+        <v>108</v>
+      </c>
+      <c r="D97" s="4">
         <v>2353</v>
       </c>
-      <c r="D97" t="s">
-        <v>147</v>
-      </c>
       <c r="E97" t="s">
-        <v>151</v>
-      </c>
-      <c r="F97">
-        <v>1985</v>
+        <v>146</v>
+      </c>
+      <c r="F97" t="s">
+        <v>150</v>
       </c>
       <c r="G97">
         <v>1985</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="4">
+        <v>42</v>
+      </c>
+      <c r="E98" t="s">
+        <v>146</v>
+      </c>
+      <c r="F98" t="s">
+        <v>150</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="4">
-        <v>42</v>
-      </c>
-      <c r="D98" t="s">
-        <v>147</v>
-      </c>
-      <c r="E98" t="s">
-        <v>151</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="4">
+      <c r="D99" s="4">
         <v>3087.8</v>
       </c>
-      <c r="D99" t="s">
-        <v>147</v>
-      </c>
       <c r="E99" t="s">
-        <v>151</v>
-      </c>
-      <c r="F99">
-        <v>1992</v>
+        <v>146</v>
+      </c>
+      <c r="F99" t="s">
+        <v>150</v>
       </c>
       <c r="G99">
         <v>1992</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" s="4">
+        <v>330</v>
+      </c>
+      <c r="E100" t="s">
+        <v>147</v>
+      </c>
+      <c r="F100" t="s">
+        <v>150</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="4">
-        <v>330</v>
-      </c>
-      <c r="D100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E100" t="s">
-        <v>151</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="4">
+      <c r="D101" s="4">
         <v>45.15</v>
       </c>
-      <c r="D101" t="s">
-        <v>147</v>
-      </c>
       <c r="E101" t="s">
-        <v>151</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F101" t="s">
+        <v>150</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45.85</v>
+      </c>
+      <c r="E102" t="s">
+        <v>146</v>
+      </c>
+      <c r="F102" t="s">
+        <v>150</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="4">
-        <v>45.85</v>
-      </c>
-      <c r="D102" t="s">
-        <v>147</v>
-      </c>
-      <c r="E102" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="4">
+      <c r="D103" s="4">
         <v>1452</v>
       </c>
-      <c r="D103" t="s">
-        <v>147</v>
-      </c>
       <c r="E103" t="s">
-        <v>151</v>
-      </c>
-      <c r="F103">
-        <v>2004</v>
+        <v>146</v>
+      </c>
+      <c r="F103" t="s">
+        <v>150</v>
       </c>
       <c r="G103">
         <v>2004</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="4">
+        <v>72</v>
+      </c>
+      <c r="E104" t="s">
+        <v>147</v>
+      </c>
+      <c r="F104" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="4">
-        <v>72</v>
-      </c>
-      <c r="D104" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" t="s">
-        <v>151</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" t="s">
-        <v>113</v>
-      </c>
-      <c r="C105" s="4">
+      <c r="D105" s="4">
         <v>740</v>
       </c>
-      <c r="D105" t="s">
-        <v>148</v>
-      </c>
       <c r="E105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F105">
-        <v>1996</v>
+        <v>147</v>
+      </c>
+      <c r="F105" t="s">
+        <v>150</v>
       </c>
       <c r="G105">
         <v>1996</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1885</v>
+      </c>
+      <c r="E106" t="s">
+        <v>147</v>
+      </c>
+      <c r="F106" t="s">
+        <v>151</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="4">
-        <v>1885</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="D107" s="4">
+        <v>260.60000000000002</v>
+      </c>
+      <c r="E107" t="s">
         <v>148</v>
       </c>
-      <c r="E106" t="s">
-        <v>152</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" t="s">
-        <v>115</v>
-      </c>
-      <c r="C107" s="4">
-        <v>260.60000000000002</v>
-      </c>
-      <c r="D107" t="s">
-        <v>149</v>
-      </c>
-      <c r="E107" t="s">
-        <v>149</v>
-      </c>
-      <c r="F107">
-        <v>2009</v>
+      <c r="F107" t="s">
+        <v>148</v>
       </c>
       <c r="G107">
         <v>2009</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="4">
+        <v>115</v>
+      </c>
+      <c r="D108" s="4">
         <v>1047.3</v>
       </c>
-      <c r="D108" t="s">
-        <v>149</v>
-      </c>
       <c r="E108" t="s">
-        <v>149</v>
-      </c>
-      <c r="F108">
-        <v>2009</v>
+        <v>148</v>
+      </c>
+      <c r="F108" t="s">
+        <v>148</v>
       </c>
       <c r="G108">
         <v>2009</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="4">
+        <v>116</v>
+      </c>
+      <c r="D109" s="4">
         <v>1468.3</v>
       </c>
-      <c r="D109" t="s">
-        <v>147</v>
-      </c>
       <c r="E109" t="s">
-        <v>151</v>
-      </c>
-      <c r="F109">
-        <v>2012</v>
+        <v>146</v>
+      </c>
+      <c r="F109" t="s">
+        <v>150</v>
       </c>
       <c r="G109">
         <v>2012</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" t="s">
         <v>98</v>
       </c>
-      <c r="B110" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="4">
+      <c r="D110" s="4">
         <v>4711</v>
       </c>
-      <c r="D110" t="s">
-        <v>147</v>
-      </c>
       <c r="E110" t="s">
-        <v>151</v>
-      </c>
-      <c r="F110">
-        <v>2015</v>
+        <v>146</v>
+      </c>
+      <c r="F110" t="s">
+        <v>150</v>
       </c>
       <c r="G110">
         <v>2015</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="4">
+        <v>117</v>
+      </c>
+      <c r="D111" s="4">
         <v>81.849999999999994</v>
       </c>
-      <c r="D111" t="s">
-        <v>149</v>
-      </c>
       <c r="E111" t="s">
-        <v>151</v>
-      </c>
-      <c r="F111">
-        <v>2022</v>
+        <v>148</v>
+      </c>
+      <c r="F111" t="s">
+        <v>150</v>
       </c>
       <c r="G111">
         <v>2022</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="4">
+        <v>99</v>
+      </c>
+      <c r="D112" s="4">
         <v>140</v>
       </c>
-      <c r="D112" t="s">
-        <v>149</v>
-      </c>
       <c r="E112" t="s">
-        <v>151</v>
-      </c>
-      <c r="F112">
-        <v>2022</v>
+        <v>148</v>
+      </c>
+      <c r="F112" t="s">
+        <v>150</v>
       </c>
       <c r="G112">
         <v>2022</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="4">
+        <v>120</v>
+      </c>
+      <c r="D113" s="4">
         <v>361.97</v>
       </c>
-      <c r="D113" t="s">
-        <v>147</v>
-      </c>
       <c r="E113" t="s">
-        <v>151</v>
-      </c>
-      <c r="F113">
-        <v>2023</v>
+        <v>146</v>
+      </c>
+      <c r="F113" t="s">
+        <v>150</v>
       </c>
       <c r="G113">
         <v>2023</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" s="4">
+        <v>121</v>
+      </c>
+      <c r="D114" s="4">
         <v>120</v>
       </c>
-      <c r="D114" t="s">
-        <v>147</v>
-      </c>
       <c r="E114" t="s">
-        <v>151</v>
-      </c>
-      <c r="F114">
-        <v>1980</v>
+        <v>146</v>
+      </c>
+      <c r="F114" t="s">
+        <v>150</v>
       </c>
       <c r="G114">
         <v>1980</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="4">
+        <v>122</v>
+      </c>
+      <c r="D115" s="4">
         <v>120</v>
       </c>
-      <c r="D115" t="s">
-        <v>147</v>
-      </c>
       <c r="E115" t="s">
-        <v>151</v>
-      </c>
-      <c r="F115">
-        <v>1980</v>
+        <v>146</v>
+      </c>
+      <c r="F115" t="s">
+        <v>150</v>
       </c>
       <c r="G115">
         <v>1980</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
-      </c>
-      <c r="C116" s="4">
+        <v>123</v>
+      </c>
+      <c r="D116" s="4">
         <v>195</v>
       </c>
-      <c r="D116" t="s">
-        <v>147</v>
-      </c>
       <c r="E116" t="s">
-        <v>151</v>
-      </c>
-      <c r="F116">
-        <v>1980</v>
+        <v>146</v>
+      </c>
+      <c r="F116" t="s">
+        <v>150</v>
       </c>
       <c r="G116">
         <v>1980</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
-      </c>
-      <c r="C117" s="4">
+        <v>124</v>
+      </c>
+      <c r="D117" s="4">
         <v>201</v>
       </c>
-      <c r="D117" t="s">
-        <v>147</v>
-      </c>
       <c r="E117" t="s">
-        <v>151</v>
-      </c>
-      <c r="F117">
-        <v>1980</v>
+        <v>146</v>
+      </c>
+      <c r="F117" t="s">
+        <v>150</v>
       </c>
       <c r="G117">
         <v>1980</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
-      </c>
-      <c r="C118" s="4">
+        <v>125</v>
+      </c>
+      <c r="D118" s="4">
         <v>274</v>
       </c>
-      <c r="D118" t="s">
-        <v>147</v>
-      </c>
       <c r="E118" t="s">
-        <v>151</v>
-      </c>
-      <c r="F118">
-        <v>1980</v>
+        <v>146</v>
+      </c>
+      <c r="F118" t="s">
+        <v>150</v>
       </c>
       <c r="G118">
         <v>1980</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="4">
+        <v>150</v>
+      </c>
+      <c r="E119" t="s">
+        <v>146</v>
+      </c>
+      <c r="F119" t="s">
+        <v>150</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="4">
-        <v>150</v>
-      </c>
-      <c r="D119" t="s">
-        <v>147</v>
-      </c>
-      <c r="E119" t="s">
-        <v>151</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="D120" s="4">
+        <v>70</v>
+      </c>
+      <c r="E120" t="s">
+        <v>146</v>
+      </c>
+      <c r="F120" t="s">
+        <v>150</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="4">
-        <v>70</v>
-      </c>
-      <c r="D120" t="s">
-        <v>147</v>
-      </c>
-      <c r="E120" t="s">
-        <v>151</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="4">
+      <c r="D121" s="4">
         <v>15</v>
       </c>
-      <c r="D121" t="s">
-        <v>147</v>
-      </c>
       <c r="E121" t="s">
-        <v>151</v>
-      </c>
-      <c r="F121">
-        <v>1994</v>
+        <v>146</v>
+      </c>
+      <c r="F121" t="s">
+        <v>150</v>
       </c>
       <c r="G121">
         <v>1994</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E122" t="s">
+        <v>146</v>
+      </c>
+      <c r="F122" t="s">
+        <v>151</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="4">
-        <v>4800</v>
-      </c>
-      <c r="D122" t="s">
-        <v>147</v>
-      </c>
-      <c r="E122" t="s">
-        <v>152</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>119</v>
-      </c>
-      <c r="B123" t="s">
-        <v>131</v>
-      </c>
-      <c r="C123" s="4">
+      <c r="D123" s="4">
         <v>243.8</v>
       </c>
-      <c r="D123" t="s">
-        <v>149</v>
-      </c>
       <c r="E123" t="s">
-        <v>151</v>
-      </c>
-      <c r="F123">
-        <v>2008</v>
+        <v>148</v>
+      </c>
+      <c r="F123" t="s">
+        <v>150</v>
       </c>
       <c r="G123">
         <v>2008</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
-      </c>
-      <c r="C124" s="4">
+        <v>131</v>
+      </c>
+      <c r="D124" s="4">
         <v>164</v>
       </c>
-      <c r="D124" t="s">
-        <v>149</v>
-      </c>
       <c r="E124" t="s">
-        <v>151</v>
-      </c>
-      <c r="F124">
-        <v>2008</v>
+        <v>148</v>
+      </c>
+      <c r="F124" t="s">
+        <v>150</v>
       </c>
       <c r="G124">
         <v>2008</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" s="4">
+        <v>132</v>
+      </c>
+      <c r="D125" s="4">
         <v>334</v>
       </c>
-      <c r="D125" t="s">
-        <v>147</v>
-      </c>
       <c r="E125" t="s">
-        <v>152</v>
-      </c>
-      <c r="F125">
-        <v>2008</v>
+        <v>146</v>
+      </c>
+      <c r="F125" t="s">
+        <v>151</v>
       </c>
       <c r="G125">
         <v>2008</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
-      </c>
-      <c r="C126" s="4">
+        <v>133</v>
+      </c>
+      <c r="D126" s="4">
         <v>451</v>
       </c>
-      <c r="D126" t="s">
-        <v>148</v>
-      </c>
       <c r="E126" t="s">
-        <v>151</v>
-      </c>
-      <c r="F126">
-        <v>2012</v>
+        <v>147</v>
+      </c>
+      <c r="F126" t="s">
+        <v>150</v>
       </c>
       <c r="G126">
         <v>2012</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="4">
+        <v>134</v>
+      </c>
+      <c r="D127" s="4">
         <v>252</v>
       </c>
-      <c r="D127" t="s">
-        <v>147</v>
-      </c>
       <c r="E127" t="s">
-        <v>151</v>
-      </c>
-      <c r="F127">
-        <v>2014</v>
+        <v>146</v>
+      </c>
+      <c r="F127" t="s">
+        <v>150</v>
       </c>
       <c r="G127">
         <v>2014</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" t="s">
         <v>119</v>
       </c>
-      <c r="B128" t="s">
-        <v>120</v>
-      </c>
-      <c r="C128" s="4">
+      <c r="D128" s="4">
         <v>18.75</v>
       </c>
-      <c r="D128" t="s">
-        <v>149</v>
-      </c>
       <c r="E128" t="s">
-        <v>151</v>
-      </c>
-      <c r="F128">
-        <v>1980</v>
+        <v>148</v>
+      </c>
+      <c r="F128" t="s">
+        <v>150</v>
       </c>
       <c r="G128">
         <v>1980</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
         <v>136</v>
       </c>
-      <c r="B129" t="s">
-        <v>137</v>
-      </c>
-      <c r="C129" s="4">
+      <c r="D129" s="4">
         <v>220.07</v>
       </c>
-      <c r="D129" t="s">
-        <v>147</v>
-      </c>
       <c r="E129" t="s">
-        <v>151</v>
-      </c>
-      <c r="F129">
-        <v>2022</v>
+        <v>146</v>
+      </c>
+      <c r="F129" t="s">
+        <v>150</v>
       </c>
       <c r="G129">
         <v>2022</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" s="4">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>147</v>
+      </c>
+      <c r="F130" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="4">
-        <v>10</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D131" s="4">
+        <v>418</v>
+      </c>
+      <c r="E131" t="s">
         <v>148</v>
       </c>
-      <c r="E130" t="s">
-        <v>151</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>139</v>
-      </c>
-      <c r="B131" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131" s="4">
-        <v>418</v>
-      </c>
-      <c r="D131" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" t="s">
-        <v>151</v>
-      </c>
-      <c r="F131">
-        <v>2002</v>
+      <c r="F131" t="s">
+        <v>150</v>
       </c>
       <c r="G131">
         <v>2002</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="4">
+        <v>140</v>
+      </c>
+      <c r="D132" s="4">
         <v>303</v>
       </c>
-      <c r="D132" t="s">
-        <v>149</v>
-      </c>
       <c r="E132" t="s">
-        <v>151</v>
-      </c>
-      <c r="F132">
-        <v>2002</v>
+        <v>148</v>
+      </c>
+      <c r="F132" t="s">
+        <v>150</v>
       </c>
       <c r="G132">
         <v>2002</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133" s="4">
+        <v>141</v>
+      </c>
+      <c r="D133" s="4">
         <v>860</v>
       </c>
-      <c r="D133" t="s">
-        <v>149</v>
-      </c>
       <c r="E133" t="s">
-        <v>149</v>
-      </c>
-      <c r="F133">
-        <v>2023</v>
+        <v>148</v>
+      </c>
+      <c r="F133" t="s">
+        <v>148</v>
       </c>
       <c r="G133">
         <v>2023</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
         <v>144</v>
       </c>
-      <c r="B134" t="s">
-        <v>145</v>
-      </c>
-      <c r="C134" s="4">
+      <c r="D134" s="4">
         <v>2633.11</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
+        <v>147</v>
+      </c>
+      <c r="F134" t="s">
         <v>148</v>
-      </c>
-      <c r="E134" t="s">
-        <v>149</v>
-      </c>
-      <c r="F134">
-        <v>2023</v>
       </c>
       <c r="G134">
         <v>2023</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B135" t="str">
         <f>UPPER(A135)</f>
         <v>EDIFICACIÓN IE SOATÁ</v>
       </c>
-      <c r="C135" s="4">
+      <c r="D135" s="4">
         <v>2273.8000000000002</v>
       </c>
-      <c r="D135" t="s">
-        <v>149</v>
-      </c>
       <c r="E135" t="s">
-        <v>149</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="F135" t="s">
+        <v>148</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>855537</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" s="4">
+        <v>32591</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>70</v>
+      </c>
+      <c r="C138" s="4">
+        <v>114404.04</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="4">
+        <v>99722</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="4">
+        <v>21122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="4">
+        <v>6282.83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G135" xr:uid="{893F1DB7-6CF6-4454-9CF0-DDFBF8B9889F}"/>
+  <autoFilter ref="A1:H141" xr:uid="{893F1DB7-6CF6-4454-9CF0-DDFBF8B9889F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8EC6A2-F319-4631-9071-71FEFEC4D859}">
+  <dimension ref="A3:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1939</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>A4</f>
+        <v>1939</v>
+      </c>
+      <c r="D4">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1943</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C46" si="0">A5</f>
+        <v>1943</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D47" si="1">D4+B5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>1948</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1948</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1956</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1956</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1958</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1958</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1961</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1961</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>1963</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1963</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>1965</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>1968</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>1973</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>1974</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>1975</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>1976</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>1978</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>1980</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>1982</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>1983</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>1985</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1986</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>1988</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>1990</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>1992</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>1993</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>1994</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>1996</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>1998</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>2024</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data_infraestructura_fisica.xlsx
+++ b/data_infraestructura_fisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\1. ANALISTAS - IDEA\2025\Infografía\data_infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC56AEC-61FC-49E3-A8F9-D53241CFD1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76C320-D1B7-4020-BC4B-C9D54798FA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{E72EED06-8F10-40C3-8181-0DBA543D2D73}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="162">
   <si>
     <t>Sede</t>
   </si>
@@ -529,9 +529,6 @@
   </si>
   <si>
     <t>Área construida o utilizada (m²)</t>
-  </si>
-  <si>
-    <t>Superficie total campus (m²)</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1765,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45917.714221527778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="134" xr:uid="{41A4F77E-79E8-428E-AC0E-474D27BA81BC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H135" sheet="Hoja1"/>
+    <worksheetSource ref="A1:G135" sheet="Hoja1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Sede" numFmtId="0">
@@ -3058,7 +3055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86CFE8A7-9FA6-4B64-810D-EDA1BE14E767}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86CFE8A7-9FA6-4B64-810D-EDA1BE14E767}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3592,3106 +3589,3103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F1DB7-6CF6-4454-9CF0-DDFBF8B9889F}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="4">
         <v>14900</v>
       </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
       <c r="E2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>1939</v>
       </c>
       <c r="G2">
-        <v>1939</v>
-      </c>
-      <c r="H2">
         <v>1978</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="4">
         <v>5177.1899999999996</v>
       </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
       <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>1943</v>
       </c>
       <c r="G3">
-        <v>1943</v>
-      </c>
-      <c r="H3">
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
         <v>2528.64</v>
       </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
       <c r="E4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>1948</v>
       </c>
       <c r="G4">
         <v>1948</v>
       </c>
-      <c r="H4">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C5" s="4">
         <v>984.98</v>
       </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
       <c r="E5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>1948</v>
       </c>
       <c r="G5">
         <v>1948</v>
       </c>
-      <c r="H5">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="C6" s="4">
         <v>1093</v>
       </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
       <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>1948</v>
       </c>
       <c r="G6">
         <v>1948</v>
       </c>
-      <c r="H6">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
         <v>3758.51</v>
       </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
       <c r="E7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>1943</v>
       </c>
       <c r="G7">
-        <v>1943</v>
-      </c>
-      <c r="H7">
         <v>1997</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="C8" s="4">
         <v>273</v>
       </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
       <c r="E8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <v>1973</v>
       </c>
       <c r="G8">
         <v>1973</v>
       </c>
-      <c r="H8">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="C9" s="4">
         <v>437.72</v>
       </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
       <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>1958</v>
       </c>
       <c r="G9">
         <v>1958</v>
       </c>
-      <c r="H9">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="C10" s="4">
         <v>2450.87</v>
       </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
       <c r="E10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>1980</v>
       </c>
       <c r="G10">
-        <v>1980</v>
-      </c>
-      <c r="H10">
         <v>1993</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4">
+      <c r="C11" s="4">
         <v>4350</v>
       </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
       <c r="E11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>1975</v>
       </c>
       <c r="G11">
         <v>1975</v>
       </c>
-      <c r="H11">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4">
+      <c r="C12" s="4">
         <v>1624</v>
       </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
       <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>1961</v>
       </c>
       <c r="G12">
         <v>1961</v>
       </c>
-      <c r="H12">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4">
+      <c r="C13" s="4">
         <v>50.5</v>
       </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
       <c r="E13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>1983</v>
       </c>
       <c r="G13">
         <v>1983</v>
       </c>
-      <c r="H13">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4">
+      <c r="C14" s="4">
         <v>103.06</v>
       </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
       <c r="E14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F14">
+        <v>1988</v>
       </c>
       <c r="G14">
         <v>1988</v>
       </c>
-      <c r="H14">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4">
+      <c r="C15" s="4">
         <v>1077.72</v>
       </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
       <c r="E15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F15">
+        <v>1980</v>
       </c>
       <c r="G15">
         <v>1980</v>
       </c>
-      <c r="H15">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4">
+      <c r="C16" s="4">
         <v>4991.8500000000004</v>
       </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
       <c r="E16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F16">
+        <v>1988</v>
       </c>
       <c r="G16">
         <v>1988</v>
       </c>
-      <c r="H16">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="4">
+      <c r="C17" s="4">
         <v>1444.41</v>
       </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
       <c r="E17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F17">
+        <v>1988</v>
       </c>
       <c r="G17">
         <v>1988</v>
       </c>
-      <c r="H17">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4">
+      <c r="C18" s="4">
         <v>624.46</v>
       </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
       <c r="E18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F18">
+        <v>1993</v>
       </c>
       <c r="G18">
         <v>1993</v>
       </c>
-      <c r="H18">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4">
+      <c r="C19" s="4">
         <v>210.13</v>
       </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
       <c r="E19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F19">
+        <v>1993</v>
       </c>
       <c r="G19">
         <v>1993</v>
       </c>
-      <c r="H19">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4">
+      <c r="C20" s="4">
         <v>60</v>
       </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
       <c r="E20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F20">
+        <v>1986</v>
       </c>
       <c r="G20">
         <v>1986</v>
       </c>
-      <c r="H20">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="4">
+      <c r="C21" s="4">
         <v>230</v>
       </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
       <c r="E21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F21">
+        <v>1994</v>
       </c>
       <c r="G21">
         <v>1994</v>
       </c>
-      <c r="H21">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="4">
+      <c r="C22" s="4">
         <v>225.95</v>
       </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
       <c r="E22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F22">
+        <v>1990</v>
       </c>
       <c r="G22">
         <v>1990</v>
       </c>
-      <c r="H22">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="4">
+      <c r="C23" s="4">
         <v>908</v>
       </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
       <c r="E23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F23">
+        <v>1993</v>
       </c>
       <c r="G23">
         <v>1993</v>
       </c>
-      <c r="H23">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="4">
+      <c r="C24" s="4">
         <v>166</v>
       </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
       <c r="E24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F24">
+        <v>1978</v>
       </c>
       <c r="G24">
         <v>1978</v>
       </c>
-      <c r="H24">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="4">
+      <c r="C25" s="4">
         <v>515.64</v>
       </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
       <c r="E25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F25">
+        <v>2012</v>
       </c>
       <c r="G25">
         <v>2012</v>
       </c>
-      <c r="H25">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="4">
+      <c r="C26" s="4">
         <v>8441.57</v>
       </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
       <c r="E26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F26">
+        <v>2003</v>
       </c>
       <c r="G26">
         <v>2003</v>
       </c>
-      <c r="H26">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="4">
+      <c r="C27" s="4">
         <v>4</v>
       </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
       <c r="E27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F27">
+        <v>2015</v>
       </c>
       <c r="G27">
         <v>2015</v>
       </c>
-      <c r="H27">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="4">
+      <c r="C28" s="4">
         <v>4</v>
       </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
       <c r="E28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F28">
+        <v>1958</v>
       </c>
       <c r="G28">
         <v>1958</v>
       </c>
-      <c r="H28">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4">
+      <c r="C29" s="4">
         <v>226.6</v>
       </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
       <c r="E29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="4">
+      <c r="C30" s="4">
         <v>60</v>
       </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
       <c r="E30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F30">
+        <v>1974</v>
       </c>
       <c r="G30">
         <v>1974</v>
       </c>
-      <c r="H30">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="4">
+      <c r="C31" s="4">
         <v>40</v>
       </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
       <c r="E31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4">
+      <c r="C32" s="4">
         <v>3751.56</v>
       </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
       <c r="E32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F32">
+        <v>1998</v>
       </c>
       <c r="G32">
         <v>1998</v>
       </c>
-      <c r="H32">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="4">
+      <c r="C33" s="4">
         <v>90</v>
       </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
       <c r="E33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F33">
+        <v>1943</v>
       </c>
       <c r="G33">
         <v>1943</v>
       </c>
-      <c r="H33">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="4">
+      <c r="C34" s="4">
         <v>50</v>
       </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
       <c r="E34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="4">
+      <c r="C35" s="4">
         <v>1620.61</v>
       </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
       <c r="E35" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F35">
+        <v>1956</v>
       </c>
       <c r="G35">
         <v>1956</v>
       </c>
-      <c r="H35">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="4">
+      <c r="C36" s="4">
         <v>72</v>
       </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
       <c r="E36" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F36">
+        <v>2003</v>
       </c>
       <c r="G36">
         <v>2003</v>
       </c>
-      <c r="H36">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="4">
+      <c r="C37" s="4">
         <v>352.14</v>
       </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
       <c r="E37" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F37">
+        <v>1991</v>
       </c>
       <c r="G37">
         <v>1991</v>
       </c>
-      <c r="H37">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="4">
+      <c r="C38" s="4">
         <v>922</v>
       </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
       <c r="E38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F38">
+        <v>2003</v>
       </c>
       <c r="G38">
         <v>2003</v>
       </c>
-      <c r="H38">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="4">
+      <c r="C39" s="4">
         <v>803</v>
       </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
       <c r="E39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F39">
+        <v>1948</v>
       </c>
       <c r="G39">
         <v>1948</v>
       </c>
-      <c r="H39">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="4">
+      <c r="C40" s="4">
         <v>232</v>
       </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
       <c r="E40" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F40">
+        <v>1948</v>
       </c>
       <c r="G40">
-        <v>1948</v>
-      </c>
-      <c r="H40">
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="4">
+      <c r="C41" s="4">
         <v>274</v>
       </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
       <c r="E41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F41">
+        <v>1993</v>
       </c>
       <c r="G41">
         <v>1993</v>
       </c>
-      <c r="H41">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="4">
+      <c r="C42" s="4">
         <v>31</v>
       </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
       <c r="E42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F42">
+        <v>1983</v>
       </c>
       <c r="G42">
         <v>1983</v>
       </c>
-      <c r="H42">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="4">
+      <c r="C43" s="4">
         <v>330</v>
       </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
       <c r="E43" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F43">
+        <v>1968</v>
       </c>
       <c r="G43">
         <v>1968</v>
       </c>
-      <c r="H43">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="4">
+      <c r="C44" s="4">
         <v>114</v>
       </c>
+      <c r="D44" t="s">
+        <v>146</v>
+      </c>
       <c r="E44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F44">
+        <v>1948</v>
       </c>
       <c r="G44">
         <v>1948</v>
       </c>
-      <c r="H44">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="4">
+      <c r="C45" s="4">
         <v>540</v>
       </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
       <c r="E45" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F45">
+        <v>1958</v>
       </c>
       <c r="G45">
         <v>1958</v>
       </c>
-      <c r="H45">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="4">
+      <c r="C46" s="4">
         <v>286.35000000000002</v>
       </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
       <c r="E46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F46">
+        <v>2001</v>
       </c>
       <c r="G46">
         <v>2001</v>
       </c>
-      <c r="H46">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="4">
+      <c r="C47" s="4">
         <v>15</v>
       </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
       <c r="E47" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F47">
+        <v>1963</v>
       </c>
       <c r="G47">
         <v>1963</v>
       </c>
-      <c r="H47">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="4">
+      <c r="C48" s="4">
         <v>50</v>
       </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
       <c r="E48" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="4">
+      <c r="C49" s="4">
         <v>8116.5</v>
       </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
       <c r="E49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="4">
+      <c r="C50" s="4">
         <v>180</v>
       </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
       <c r="E50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F50" t="s">
         <v>151</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="4">
+      <c r="C51" s="4">
         <v>5470</v>
       </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
       <c r="E51" t="s">
-        <v>147</v>
-      </c>
-      <c r="F51" t="s">
         <v>151</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="4">
+      <c r="C52" s="4">
         <v>2400</v>
       </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
       <c r="E52" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" t="s">
         <v>151</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="4">
+      <c r="C53" s="4">
         <v>990</v>
       </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
       <c r="E53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" t="s">
         <v>148</v>
       </c>
+      <c r="F53">
+        <v>2007</v>
+      </c>
       <c r="G53">
-        <v>2007</v>
-      </c>
-      <c r="H53">
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="4">
+      <c r="C54" s="4">
         <v>1520.75</v>
       </c>
+      <c r="D54" t="s">
+        <v>146</v>
+      </c>
       <c r="E54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F54" t="s">
         <v>148</v>
+      </c>
+      <c r="F54">
+        <v>2008</v>
       </c>
       <c r="G54">
         <v>2008</v>
       </c>
-      <c r="H54">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="4">
+      <c r="C55" s="4">
         <v>2925</v>
       </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
       <c r="E55" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F55">
+        <v>2012</v>
       </c>
       <c r="G55">
         <v>2012</v>
       </c>
-      <c r="H55">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="4">
+      <c r="C56" s="4">
         <v>15018</v>
       </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
       <c r="E56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F56">
+        <v>2012</v>
       </c>
       <c r="G56">
         <v>2012</v>
       </c>
-      <c r="H56">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="4">
+      <c r="C57" s="4">
         <v>3362.5</v>
       </c>
+      <c r="D57" t="s">
+        <v>146</v>
+      </c>
       <c r="E57" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F57">
+        <v>2014</v>
       </c>
       <c r="G57">
         <v>2014</v>
       </c>
-      <c r="H57">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="4">
+      <c r="C58" s="4">
         <v>5615.28</v>
       </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
       <c r="E58" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F58">
+        <v>2016</v>
       </c>
       <c r="G58">
         <v>2016</v>
       </c>
-      <c r="H58">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="4">
+      <c r="C59" s="4">
         <v>10911</v>
       </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
       <c r="E59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F59">
+        <v>2022</v>
       </c>
       <c r="G59">
         <v>2022</v>
       </c>
-      <c r="H59">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="4">
+      <c r="C60" s="4">
         <v>16</v>
       </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
       <c r="E60" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F60">
+        <v>2020</v>
       </c>
       <c r="G60">
         <v>2020</v>
       </c>
-      <c r="H60">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="4">
+      <c r="C61" s="4">
         <v>64.5</v>
       </c>
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
       <c r="E61" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F61">
+        <v>2020</v>
       </c>
       <c r="G61">
         <v>2020</v>
       </c>
-      <c r="H61">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="4">
+      <c r="C62" s="4">
         <v>2080</v>
       </c>
+      <c r="D62" t="s">
+        <v>146</v>
+      </c>
       <c r="E62" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F62">
+        <v>1982</v>
       </c>
       <c r="G62">
         <v>1982</v>
       </c>
-      <c r="H62">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="4">
+      <c r="C63" s="4">
         <v>1102</v>
       </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
       <c r="E63" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F63">
+        <v>1998</v>
       </c>
       <c r="G63">
         <v>1998</v>
       </c>
-      <c r="H63">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="4">
+      <c r="C64" s="4">
         <v>1486</v>
       </c>
+      <c r="D64" t="s">
+        <v>147</v>
+      </c>
       <c r="E64" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F64">
+        <v>2006</v>
       </c>
       <c r="G64">
         <v>2006</v>
       </c>
-      <c r="H64">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="4">
+      <c r="C65" s="4">
         <v>43.85</v>
       </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
       <c r="E65" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="4">
+      <c r="C66" s="4">
         <v>775.48</v>
       </c>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
       <c r="E66" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F66">
+        <v>2013</v>
       </c>
       <c r="G66">
         <v>2013</v>
       </c>
-      <c r="H66">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="4">
+      <c r="C67" s="4">
         <v>1930</v>
       </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
       <c r="E67" t="s">
-        <v>147</v>
-      </c>
-      <c r="F67" t="s">
         <v>151</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="4">
+      <c r="C68" s="4">
         <v>3500</v>
       </c>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
       <c r="E68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F68">
+        <v>1976</v>
       </c>
       <c r="G68">
         <v>1976</v>
       </c>
-      <c r="H68">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="4">
+      <c r="C69" s="4">
         <v>2850</v>
       </c>
+      <c r="D69" t="s">
+        <v>146</v>
+      </c>
       <c r="E69" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F69">
+        <v>1978</v>
       </c>
       <c r="G69">
         <v>1978</v>
       </c>
-      <c r="H69">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="4">
+      <c r="C70" s="4">
         <v>2241</v>
       </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
       <c r="E70" t="s">
-        <v>146</v>
-      </c>
-      <c r="F70" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F70">
+        <v>1982</v>
       </c>
       <c r="G70">
         <v>1982</v>
       </c>
-      <c r="H70">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="4">
+      <c r="C71" s="4">
         <v>674</v>
       </c>
+      <c r="D71" t="s">
+        <v>147</v>
+      </c>
       <c r="E71" t="s">
-        <v>147</v>
-      </c>
-      <c r="F71" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F71">
+        <v>1990</v>
       </c>
       <c r="G71">
         <v>1990</v>
       </c>
-      <c r="H71">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="4">
+      <c r="C72" s="4">
         <v>9</v>
       </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
       <c r="E72" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="4">
+      <c r="C73" s="4">
         <v>6</v>
       </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
       <c r="E73" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="4">
+      <c r="C74" s="4">
         <v>58.7</v>
       </c>
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
       <c r="E74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="4">
+      <c r="C75" s="4">
         <v>270</v>
       </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
       <c r="E75" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F75">
+        <v>1994</v>
       </c>
       <c r="G75">
         <v>1994</v>
       </c>
-      <c r="H75">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="4">
+      <c r="C76" s="4">
         <v>6</v>
       </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
       <c r="E76" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>70</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="4">
+      <c r="C77" s="4">
         <v>525</v>
       </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
       <c r="E77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F77">
+        <v>1965</v>
       </c>
       <c r="G77">
         <v>1965</v>
       </c>
-      <c r="H77">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>70</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="4">
+      <c r="C78" s="4">
         <v>2400</v>
       </c>
+      <c r="D78" t="s">
+        <v>146</v>
+      </c>
       <c r="E78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F78">
+        <v>2002</v>
       </c>
       <c r="G78">
         <v>2002</v>
       </c>
-      <c r="H78">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>70</v>
       </c>
       <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="4">
+      <c r="C79" s="4">
         <v>263</v>
       </c>
+      <c r="D79" t="s">
+        <v>147</v>
+      </c>
       <c r="E79" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F79">
+        <v>1998</v>
       </c>
       <c r="G79">
         <v>1998</v>
       </c>
-      <c r="H79">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>70</v>
       </c>
       <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="4">
+      <c r="C80" s="4">
         <v>1893</v>
       </c>
+      <c r="D80" t="s">
+        <v>146</v>
+      </c>
       <c r="E80" t="s">
-        <v>146</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F80">
+        <v>1980</v>
       </c>
       <c r="G80">
         <v>1980</v>
       </c>
-      <c r="H80">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>70</v>
       </c>
       <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="4">
+      <c r="C81" s="4">
         <v>705</v>
       </c>
+      <c r="D81" t="s">
+        <v>147</v>
+      </c>
       <c r="E81" t="s">
-        <v>147</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F81">
+        <v>1965</v>
       </c>
       <c r="G81">
         <v>1965</v>
       </c>
-      <c r="H81">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>70</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="4">
+      <c r="C82" s="4">
         <v>313.12</v>
       </c>
+      <c r="D82" t="s">
+        <v>146</v>
+      </c>
       <c r="E82" t="s">
-        <v>146</v>
-      </c>
-      <c r="F82" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F82">
+        <v>2012</v>
       </c>
       <c r="G82">
         <v>2012</v>
       </c>
-      <c r="H82">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>70</v>
       </c>
       <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="4">
+      <c r="C83" s="4">
         <v>415.25</v>
       </c>
+      <c r="D83" t="s">
+        <v>147</v>
+      </c>
       <c r="E83" t="s">
-        <v>147</v>
-      </c>
-      <c r="F83" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>70</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
       </c>
-      <c r="D84" s="4">
+      <c r="C84" s="4">
         <v>5498</v>
       </c>
+      <c r="D84" t="s">
+        <v>146</v>
+      </c>
       <c r="E84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F84">
+        <v>2016</v>
       </c>
       <c r="G84">
         <v>2016</v>
       </c>
-      <c r="H84">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>70</v>
       </c>
       <c r="B85" t="s">
         <v>72</v>
       </c>
-      <c r="D85" s="4">
+      <c r="C85" s="4">
         <v>599.63</v>
       </c>
+      <c r="D85" t="s">
+        <v>146</v>
+      </c>
       <c r="E85" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" t="s">
         <v>148</v>
+      </c>
+      <c r="F85">
+        <v>2023</v>
       </c>
       <c r="G85">
         <v>2023</v>
       </c>
-      <c r="H85">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>70</v>
       </c>
       <c r="B86" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="4">
+      <c r="C86" s="4">
         <v>8009.47</v>
       </c>
+      <c r="D86" t="s">
+        <v>146</v>
+      </c>
       <c r="E86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F86" t="s">
         <v>148</v>
+      </c>
+      <c r="F86">
+        <v>2023</v>
       </c>
       <c r="G86">
         <v>2023</v>
       </c>
-      <c r="H86">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>70</v>
       </c>
       <c r="B87" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="4">
+      <c r="C87" s="4">
         <v>2236</v>
       </c>
+      <c r="D87" t="s">
+        <v>147</v>
+      </c>
       <c r="E87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F87" t="s">
         <v>151</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
       </c>
-      <c r="D88" s="4">
+      <c r="C88" s="4">
         <v>1155.2</v>
       </c>
+      <c r="D88" t="s">
+        <v>147</v>
+      </c>
       <c r="E88" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
       </c>
-      <c r="D89" s="4">
+      <c r="C89" s="4">
         <v>300</v>
       </c>
+      <c r="D89" t="s">
+        <v>147</v>
+      </c>
       <c r="E89" t="s">
-        <v>147</v>
-      </c>
-      <c r="F89" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
       </c>
-      <c r="D90" s="4">
+      <c r="C90" s="4">
         <v>250</v>
       </c>
+      <c r="D90" t="s">
+        <v>147</v>
+      </c>
       <c r="E90" t="s">
-        <v>147</v>
-      </c>
-      <c r="F90" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="4">
-        <v>150</v>
+      <c r="C91" s="4">
+        <v>150</v>
+      </c>
+      <c r="D91" t="s">
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
       </c>
-      <c r="D92" s="4">
+      <c r="C92" s="4">
         <v>100</v>
       </c>
+      <c r="D92" t="s">
+        <v>146</v>
+      </c>
       <c r="E92" t="s">
-        <v>146</v>
-      </c>
-      <c r="F92" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
       </c>
-      <c r="D93" s="4">
+      <c r="C93" s="4">
         <v>1377</v>
       </c>
+      <c r="D93" t="s">
+        <v>146</v>
+      </c>
       <c r="E93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F93" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F93">
+        <v>1974</v>
       </c>
       <c r="G93">
         <v>1974</v>
       </c>
-      <c r="H93">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" t="s">
         <v>101</v>
       </c>
-      <c r="D94" s="4">
+      <c r="C94" s="4">
         <v>1377</v>
       </c>
+      <c r="D94" t="s">
+        <v>146</v>
+      </c>
       <c r="E94" t="s">
-        <v>146</v>
-      </c>
-      <c r="F94" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F94">
+        <v>1974</v>
       </c>
       <c r="G94">
         <v>1974</v>
       </c>
-      <c r="H94">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
         <v>102</v>
       </c>
-      <c r="D95" s="4">
+      <c r="C95" s="4">
         <v>230</v>
       </c>
+      <c r="D95" t="s">
+        <v>146</v>
+      </c>
       <c r="E95" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F95">
+        <v>1998</v>
       </c>
       <c r="G95">
         <v>1998</v>
       </c>
-      <c r="H95">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>103</v>
       </c>
-      <c r="D96" s="4">
+      <c r="C96" s="4">
         <v>1804</v>
       </c>
+      <c r="D96" t="s">
+        <v>146</v>
+      </c>
       <c r="E96" t="s">
-        <v>146</v>
-      </c>
-      <c r="F96" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F96">
+        <v>1980</v>
       </c>
       <c r="G96">
         <v>1980</v>
       </c>
-      <c r="H96">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="4">
+      <c r="C97" s="4">
         <v>2353</v>
       </c>
+      <c r="D97" t="s">
+        <v>146</v>
+      </c>
       <c r="E97" t="s">
-        <v>146</v>
-      </c>
-      <c r="F97" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F97">
+        <v>1985</v>
       </c>
       <c r="G97">
         <v>1985</v>
       </c>
-      <c r="H97">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="4">
+      <c r="C98" s="4">
         <v>42</v>
       </c>
+      <c r="D98" t="s">
+        <v>146</v>
+      </c>
       <c r="E98" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="4">
+      <c r="C99" s="4">
         <v>3087.8</v>
       </c>
+      <c r="D99" t="s">
+        <v>146</v>
+      </c>
       <c r="E99" t="s">
-        <v>146</v>
-      </c>
-      <c r="F99" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F99">
+        <v>1992</v>
       </c>
       <c r="G99">
         <v>1992</v>
       </c>
-      <c r="H99">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>97</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="D100" s="4">
+      <c r="C100" s="4">
         <v>330</v>
       </c>
+      <c r="D100" t="s">
+        <v>147</v>
+      </c>
       <c r="E100" t="s">
-        <v>147</v>
-      </c>
-      <c r="F100" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>97</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="D101" s="4">
+      <c r="C101" s="4">
         <v>45.15</v>
       </c>
+      <c r="D101" t="s">
+        <v>146</v>
+      </c>
       <c r="E101" t="s">
-        <v>146</v>
-      </c>
-      <c r="F101" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>97</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
       </c>
-      <c r="D102" s="4">
+      <c r="C102" s="4">
         <v>45.85</v>
       </c>
+      <c r="D102" t="s">
+        <v>146</v>
+      </c>
       <c r="E102" t="s">
-        <v>146</v>
-      </c>
-      <c r="F102" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>97</v>
       </c>
       <c r="B103" t="s">
         <v>110</v>
       </c>
-      <c r="D103" s="4">
+      <c r="C103" s="4">
         <v>1452</v>
       </c>
+      <c r="D103" t="s">
+        <v>146</v>
+      </c>
       <c r="E103" t="s">
-        <v>146</v>
-      </c>
-      <c r="F103" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F103">
+        <v>2004</v>
       </c>
       <c r="G103">
         <v>2004</v>
       </c>
-      <c r="H103">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>97</v>
       </c>
       <c r="B104" t="s">
         <v>111</v>
       </c>
-      <c r="D104" s="4">
+      <c r="C104" s="4">
         <v>72</v>
       </c>
+      <c r="D104" t="s">
+        <v>147</v>
+      </c>
       <c r="E104" t="s">
-        <v>147</v>
-      </c>
-      <c r="F104" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>97</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="4">
+      <c r="C105" s="4">
         <v>740</v>
       </c>
+      <c r="D105" t="s">
+        <v>147</v>
+      </c>
       <c r="E105" t="s">
-        <v>147</v>
-      </c>
-      <c r="F105" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F105">
+        <v>1996</v>
       </c>
       <c r="G105">
         <v>1996</v>
       </c>
-      <c r="H105">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>97</v>
       </c>
       <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="4">
+      <c r="C106" s="4">
         <v>1885</v>
       </c>
+      <c r="D106" t="s">
+        <v>147</v>
+      </c>
       <c r="E106" t="s">
-        <v>147</v>
-      </c>
-      <c r="F106" t="s">
         <v>151</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>97</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
       </c>
-      <c r="D107" s="4">
+      <c r="C107" s="4">
         <v>260.60000000000002</v>
+      </c>
+      <c r="D107" t="s">
+        <v>148</v>
       </c>
       <c r="E107" t="s">
         <v>148</v>
       </c>
-      <c r="F107" t="s">
-        <v>148</v>
+      <c r="F107">
+        <v>2009</v>
       </c>
       <c r="G107">
         <v>2009</v>
       </c>
-      <c r="H107">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>97</v>
       </c>
       <c r="B108" t="s">
         <v>115</v>
       </c>
-      <c r="D108" s="4">
+      <c r="C108" s="4">
         <v>1047.3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>148</v>
       </c>
       <c r="E108" t="s">
         <v>148</v>
       </c>
-      <c r="F108" t="s">
-        <v>148</v>
+      <c r="F108">
+        <v>2009</v>
       </c>
       <c r="G108">
         <v>2009</v>
       </c>
-      <c r="H108">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>97</v>
       </c>
       <c r="B109" t="s">
         <v>116</v>
       </c>
-      <c r="D109" s="4">
+      <c r="C109" s="4">
         <v>1468.3</v>
       </c>
+      <c r="D109" t="s">
+        <v>146</v>
+      </c>
       <c r="E109" t="s">
-        <v>146</v>
-      </c>
-      <c r="F109" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F109">
+        <v>2012</v>
       </c>
       <c r="G109">
         <v>2012</v>
       </c>
-      <c r="H109">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>97</v>
       </c>
       <c r="B110" t="s">
         <v>98</v>
       </c>
-      <c r="D110" s="4">
+      <c r="C110" s="4">
         <v>4711</v>
       </c>
+      <c r="D110" t="s">
+        <v>146</v>
+      </c>
       <c r="E110" t="s">
-        <v>146</v>
-      </c>
-      <c r="F110" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F110">
+        <v>2015</v>
       </c>
       <c r="G110">
         <v>2015</v>
       </c>
-      <c r="H110">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>97</v>
       </c>
       <c r="B111" t="s">
         <v>117</v>
       </c>
-      <c r="D111" s="4">
+      <c r="C111" s="4">
         <v>81.849999999999994</v>
       </c>
+      <c r="D111" t="s">
+        <v>148</v>
+      </c>
       <c r="E111" t="s">
-        <v>148</v>
-      </c>
-      <c r="F111" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F111">
+        <v>2022</v>
       </c>
       <c r="G111">
         <v>2022</v>
       </c>
-      <c r="H111">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>97</v>
       </c>
       <c r="B112" t="s">
         <v>99</v>
       </c>
-      <c r="D112" s="4">
+      <c r="C112" s="4">
         <v>140</v>
       </c>
+      <c r="D112" t="s">
+        <v>148</v>
+      </c>
       <c r="E112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F112" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F112">
+        <v>2022</v>
       </c>
       <c r="G112">
         <v>2022</v>
       </c>
-      <c r="H112">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>118</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
       </c>
-      <c r="D113" s="4">
+      <c r="C113" s="4">
         <v>361.97</v>
       </c>
+      <c r="D113" t="s">
+        <v>146</v>
+      </c>
       <c r="E113" t="s">
-        <v>146</v>
-      </c>
-      <c r="F113" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F113">
+        <v>2023</v>
       </c>
       <c r="G113">
         <v>2023</v>
       </c>
-      <c r="H113">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>118</v>
       </c>
       <c r="B114" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="4">
+      <c r="C114" s="4">
         <v>120</v>
       </c>
+      <c r="D114" t="s">
+        <v>146</v>
+      </c>
       <c r="E114" t="s">
-        <v>146</v>
-      </c>
-      <c r="F114" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F114">
+        <v>1980</v>
       </c>
       <c r="G114">
         <v>1980</v>
       </c>
-      <c r="H114">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" t="s">
         <v>122</v>
       </c>
-      <c r="D115" s="4">
+      <c r="C115" s="4">
         <v>120</v>
       </c>
+      <c r="D115" t="s">
+        <v>146</v>
+      </c>
       <c r="E115" t="s">
-        <v>146</v>
-      </c>
-      <c r="F115" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F115">
+        <v>1980</v>
       </c>
       <c r="G115">
         <v>1980</v>
       </c>
-      <c r="H115">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
       </c>
-      <c r="D116" s="4">
+      <c r="C116" s="4">
         <v>195</v>
       </c>
+      <c r="D116" t="s">
+        <v>146</v>
+      </c>
       <c r="E116" t="s">
-        <v>146</v>
-      </c>
-      <c r="F116" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F116">
+        <v>1980</v>
       </c>
       <c r="G116">
         <v>1980</v>
       </c>
-      <c r="H116">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117" t="s">
         <v>124</v>
       </c>
-      <c r="D117" s="4">
+      <c r="C117" s="4">
         <v>201</v>
       </c>
+      <c r="D117" t="s">
+        <v>146</v>
+      </c>
       <c r="E117" t="s">
-        <v>146</v>
-      </c>
-      <c r="F117" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F117">
+        <v>1980</v>
       </c>
       <c r="G117">
         <v>1980</v>
       </c>
-      <c r="H117">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
       <c r="B118" t="s">
         <v>125</v>
       </c>
-      <c r="D118" s="4">
+      <c r="C118" s="4">
         <v>274</v>
       </c>
+      <c r="D118" t="s">
+        <v>146</v>
+      </c>
       <c r="E118" t="s">
-        <v>146</v>
-      </c>
-      <c r="F118" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F118">
+        <v>1980</v>
       </c>
       <c r="G118">
         <v>1980</v>
       </c>
-      <c r="H118">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>126</v>
       </c>
-      <c r="D119" s="4">
-        <v>150</v>
+      <c r="C119" s="4">
+        <v>150</v>
+      </c>
+      <c r="D119" t="s">
+        <v>146</v>
       </c>
       <c r="E119" t="s">
-        <v>146</v>
-      </c>
-      <c r="F119" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H119" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="4">
+      <c r="C120" s="4">
         <v>70</v>
       </c>
+      <c r="D120" t="s">
+        <v>146</v>
+      </c>
       <c r="E120" t="s">
-        <v>146</v>
-      </c>
-      <c r="F120" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>118</v>
       </c>
       <c r="B121" t="s">
         <v>128</v>
       </c>
-      <c r="D121" s="4">
+      <c r="C121" s="4">
         <v>15</v>
       </c>
+      <c r="D121" t="s">
+        <v>146</v>
+      </c>
       <c r="E121" t="s">
-        <v>146</v>
-      </c>
-      <c r="F121" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F121">
+        <v>1994</v>
       </c>
       <c r="G121">
         <v>1994</v>
       </c>
-      <c r="H121">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>118</v>
       </c>
       <c r="B122" t="s">
         <v>129</v>
       </c>
-      <c r="D122" s="4">
+      <c r="C122" s="4">
         <v>4800</v>
       </c>
+      <c r="D122" t="s">
+        <v>146</v>
+      </c>
       <c r="E122" t="s">
-        <v>146</v>
-      </c>
-      <c r="F122" t="s">
         <v>151</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H122" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>118</v>
       </c>
       <c r="B123" t="s">
         <v>130</v>
       </c>
-      <c r="D123" s="4">
+      <c r="C123" s="4">
         <v>243.8</v>
       </c>
+      <c r="D123" t="s">
+        <v>148</v>
+      </c>
       <c r="E123" t="s">
-        <v>148</v>
-      </c>
-      <c r="F123" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F123">
+        <v>2008</v>
       </c>
       <c r="G123">
         <v>2008</v>
       </c>
-      <c r="H123">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>118</v>
       </c>
       <c r="B124" t="s">
         <v>131</v>
       </c>
-      <c r="D124" s="4">
+      <c r="C124" s="4">
         <v>164</v>
       </c>
+      <c r="D124" t="s">
+        <v>148</v>
+      </c>
       <c r="E124" t="s">
-        <v>148</v>
-      </c>
-      <c r="F124" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F124">
+        <v>2008</v>
       </c>
       <c r="G124">
         <v>2008</v>
       </c>
-      <c r="H124">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>118</v>
       </c>
       <c r="B125" t="s">
         <v>132</v>
       </c>
-      <c r="D125" s="4">
+      <c r="C125" s="4">
         <v>334</v>
       </c>
+      <c r="D125" t="s">
+        <v>146</v>
+      </c>
       <c r="E125" t="s">
-        <v>146</v>
-      </c>
-      <c r="F125" t="s">
         <v>151</v>
+      </c>
+      <c r="F125">
+        <v>2008</v>
       </c>
       <c r="G125">
         <v>2008</v>
       </c>
-      <c r="H125">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>118</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
       </c>
-      <c r="D126" s="4">
+      <c r="C126" s="4">
         <v>451</v>
       </c>
+      <c r="D126" t="s">
+        <v>147</v>
+      </c>
       <c r="E126" t="s">
-        <v>147</v>
-      </c>
-      <c r="F126" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F126">
+        <v>2012</v>
       </c>
       <c r="G126">
         <v>2012</v>
       </c>
-      <c r="H126">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>118</v>
       </c>
       <c r="B127" t="s">
         <v>134</v>
       </c>
-      <c r="D127" s="4">
+      <c r="C127" s="4">
         <v>252</v>
       </c>
+      <c r="D127" t="s">
+        <v>146</v>
+      </c>
       <c r="E127" t="s">
-        <v>146</v>
-      </c>
-      <c r="F127" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F127">
+        <v>2014</v>
       </c>
       <c r="G127">
         <v>2014</v>
       </c>
-      <c r="H127">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>118</v>
       </c>
       <c r="B128" t="s">
         <v>119</v>
       </c>
-      <c r="D128" s="4">
+      <c r="C128" s="4">
         <v>18.75</v>
       </c>
+      <c r="D128" t="s">
+        <v>148</v>
+      </c>
       <c r="E128" t="s">
-        <v>148</v>
-      </c>
-      <c r="F128" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F128">
+        <v>1980</v>
       </c>
       <c r="G128">
         <v>1980</v>
       </c>
-      <c r="H128">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>136</v>
       </c>
-      <c r="D129" s="4">
+      <c r="C129" s="4">
         <v>220.07</v>
       </c>
+      <c r="D129" t="s">
+        <v>146</v>
+      </c>
       <c r="E129" t="s">
-        <v>146</v>
-      </c>
-      <c r="F129" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F129">
+        <v>2022</v>
       </c>
       <c r="G129">
         <v>2022</v>
       </c>
-      <c r="H129">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>135</v>
       </c>
       <c r="B130" t="s">
         <v>137</v>
       </c>
-      <c r="D130" s="4">
+      <c r="C130" s="4">
         <v>10</v>
       </c>
+      <c r="D130" t="s">
+        <v>147</v>
+      </c>
       <c r="E130" t="s">
-        <v>147</v>
-      </c>
-      <c r="F130" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H130" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>138</v>
       </c>
       <c r="B131" t="s">
         <v>139</v>
       </c>
-      <c r="D131" s="4">
+      <c r="C131" s="4">
         <v>418</v>
       </c>
+      <c r="D131" t="s">
+        <v>148</v>
+      </c>
       <c r="E131" t="s">
-        <v>148</v>
-      </c>
-      <c r="F131" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F131">
+        <v>2002</v>
       </c>
       <c r="G131">
         <v>2002</v>
       </c>
-      <c r="H131">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
         <v>140</v>
       </c>
-      <c r="D132" s="4">
+      <c r="C132" s="4">
         <v>303</v>
       </c>
+      <c r="D132" t="s">
+        <v>148</v>
+      </c>
       <c r="E132" t="s">
-        <v>148</v>
-      </c>
-      <c r="F132" t="s">
-        <v>150</v>
+        <v>150</v>
+      </c>
+      <c r="F132">
+        <v>2002</v>
       </c>
       <c r="G132">
         <v>2002</v>
       </c>
-      <c r="H132">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>142</v>
       </c>
       <c r="B133" t="s">
         <v>141</v>
       </c>
-      <c r="D133" s="4">
+      <c r="C133" s="4">
         <v>860</v>
+      </c>
+      <c r="D133" t="s">
+        <v>148</v>
       </c>
       <c r="E133" t="s">
         <v>148</v>
       </c>
-      <c r="F133" t="s">
-        <v>148</v>
+      <c r="F133">
+        <v>2023</v>
       </c>
       <c r="G133">
         <v>2023</v>
       </c>
-      <c r="H133">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>143</v>
       </c>
       <c r="B134" t="s">
         <v>144</v>
       </c>
-      <c r="D134" s="4">
+      <c r="C134" s="4">
         <v>2633.11</v>
       </c>
+      <c r="D134" t="s">
+        <v>147</v>
+      </c>
       <c r="E134" t="s">
-        <v>147</v>
-      </c>
-      <c r="F134" t="s">
         <v>148</v>
+      </c>
+      <c r="F134">
+        <v>2023</v>
       </c>
       <c r="G134">
         <v>2023</v>
       </c>
-      <c r="H134">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -6699,72 +6693,24 @@
         <f>UPPER(A135)</f>
         <v>EDIFICACIÓN IE SOATÁ</v>
       </c>
-      <c r="D135" s="4">
+      <c r="C135" s="4">
         <v>2273.8000000000002</v>
+      </c>
+      <c r="D135" t="s">
+        <v>148</v>
       </c>
       <c r="E135" t="s">
         <v>148</v>
       </c>
-      <c r="F135" t="s">
-        <v>148</v>
+      <c r="F135" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="4">
-        <v>855537</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>63</v>
-      </c>
-      <c r="C137" s="4">
-        <v>32591</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>70</v>
-      </c>
-      <c r="C138" s="4">
-        <v>114404.04</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>97</v>
-      </c>
-      <c r="C139" s="4">
-        <v>99722</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>138</v>
-      </c>
-      <c r="C140" s="4">
-        <v>21122</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>143</v>
-      </c>
-      <c r="C141" s="4">
-        <v>6282.83</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H141" xr:uid="{893F1DB7-6CF6-4454-9CF0-DDFBF8B9889F}"/>
+  <autoFilter ref="A1:G135" xr:uid="{893F1DB7-6CF6-4454-9CF0-DDFBF8B9889F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data_infraestructura_fisica.xlsx
+++ b/data_infraestructura_fisica.xlsx
@@ -2,26 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\1. ANALISTAS - IDEA\2025\Infografía\data_infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76C320-D1B7-4020-BC4B-C9D54798FA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B228D7-F9B8-407B-897C-B076F43C8E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{E72EED06-8F10-40C3-8181-0DBA543D2D73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" activeTab="2" xr2:uid="{E72EED06-8F10-40C3-8181-0DBA543D2D73}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="area_construida" sheetId="1" r:id="rId1"/>
+    <sheet name="ratio_edificaciones_campus" sheetId="3" r:id="rId2"/>
+    <sheet name="acumulado_edificaciones" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">area_construida!$A$1:$G$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ratio_edificaciones_campus!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="164">
   <si>
     <t>Sede</t>
   </si>
@@ -489,9 +491,6 @@
     <t>Actividades deportivas,bienestar y otras</t>
   </si>
   <si>
-    <t>Sin datos</t>
-  </si>
-  <si>
     <t>Espacio cubierto/descubierto</t>
   </si>
   <si>
@@ -529,14 +528,24 @@
   </si>
   <si>
     <t>Área construida o utilizada (m²)</t>
+  </si>
+  <si>
+    <t>Superficie total campus (m²)</t>
+  </si>
+  <si>
+    <t>Superficie total edificios planta baja (m²)</t>
+  </si>
+  <si>
+    <t>Ratio edificaciones/campus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -559,12 +568,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -576,11 +591,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -590,10 +606,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -663,7 +686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$D$3</c:f>
+              <c:f>acumulado_edificaciones!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -698,171 +721,186 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja2!$C$4:$C$47</c:f>
+              <c:f>acumulado_edificaciones!$C$4:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1939</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1943</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1948</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1956</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1958</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1961</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>1963</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>1965</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>1968</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>1973</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>1974</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>1975</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>1976</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>1978</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>1980</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1982</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1983</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>1985</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>1986</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>1988</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>1990</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>1991</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>1992</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>1993</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>1994</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1996</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>1998</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>2001</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>2002</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>2003</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>2004</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>2006</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>2012</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>2013</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>2014</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>2022</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja2!$D$4:$D$47</c:f>
+              <c:f>acumulado_edificaciones!$D$4:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18</c:v>
@@ -874,111 +912,126 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>71</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>84</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>85</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>87</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>89</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>91</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>97</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>102</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1BB3-42DA-87BA-9CF05C08BC61}"/>
@@ -1725,14 +1778,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1763,9 +1816,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45917.714221527778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="134" xr:uid="{41A4F77E-79E8-428E-AC0E-474D27BA81BC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="williamandresr" refreshedDate="45918.675767592591" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="134" xr:uid="{41A4F77E-79E8-428E-AC0E-474D27BA81BC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G135" sheet="Hoja1"/>
+    <worksheetSource ref="A1:G135" sheet="area_construida"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Sede" numFmtId="0">
@@ -1774,7 +1827,7 @@
     <cacheField name="Conjunto Edificaciones" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Area construida o utilizada (m²)" numFmtId="2">
+    <cacheField name="Área construida o utilizada (m²)" numFmtId="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4" maxValue="15018"/>
     </cacheField>
     <cacheField name="Uso" numFmtId="0">
@@ -1783,8 +1836,8 @@
     <cacheField name="Espacio cubierto/descubierto" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Año construcción (más antiguo)" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1939" maxValue="2023" count="44">
+    <cacheField name="Año construcción (más antiguo)" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1939" maxValue="2023" count="49">
         <n v="1939"/>
         <n v="1943"/>
         <n v="1948"/>
@@ -1803,14 +1856,16 @@
         <n v="2012"/>
         <n v="2003"/>
         <n v="2015"/>
-        <s v=""/>
         <n v="1974"/>
+        <n v="1985"/>
         <n v="1998"/>
         <n v="1956"/>
         <n v="1991"/>
         <n v="1968"/>
         <n v="2001"/>
         <n v="1963"/>
+        <n v="1995"/>
+        <n v="1952"/>
         <n v="2007"/>
         <n v="2008"/>
         <n v="2014"/>
@@ -1819,13 +1874,16 @@
         <n v="2020"/>
         <n v="1982"/>
         <n v="2006"/>
+        <n v="2000"/>
         <n v="2013"/>
         <n v="1976"/>
         <n v="1965"/>
         <n v="2002"/>
         <n v="2023"/>
-        <n v="1985"/>
+        <n v="1942"/>
+        <n v="1960"/>
         <n v="1992"/>
+        <n v="2005"/>
         <n v="2004"/>
         <n v="1996"/>
         <n v="2009"/>
@@ -2094,7 +2152,7 @@
     <n v="226.6"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="13"/>
     <s v=""/>
   </r>
   <r>
@@ -2103,7 +2161,7 @@
     <n v="60"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="19"/>
+    <x v="18"/>
     <n v="1974"/>
   </r>
   <r>
@@ -2112,7 +2170,7 @@
     <n v="40"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="19"/>
     <s v=""/>
   </r>
   <r>
@@ -2139,7 +2197,7 @@
     <n v="50"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="3"/>
     <s v=""/>
   </r>
   <r>
@@ -2265,7 +2323,7 @@
     <n v="50"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="26"/>
     <s v=""/>
   </r>
   <r>
@@ -2274,7 +2332,7 @@
     <n v="8116.5"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="27"/>
     <s v=""/>
   </r>
   <r>
@@ -2283,7 +2341,7 @@
     <n v="180"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Descubierto"/>
-    <x v="18"/>
+    <x v="22"/>
     <s v=""/>
   </r>
   <r>
@@ -2301,7 +2359,7 @@
     <n v="2400"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Descubierto"/>
-    <x v="18"/>
+    <x v="6"/>
     <s v=""/>
   </r>
   <r>
@@ -2310,7 +2368,7 @@
     <n v="990"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Sin datos"/>
-    <x v="26"/>
+    <x v="28"/>
     <n v="2017"/>
   </r>
   <r>
@@ -2319,7 +2377,7 @@
     <n v="1520.75"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Sin datos"/>
-    <x v="27"/>
+    <x v="29"/>
     <n v="2008"/>
   </r>
   <r>
@@ -2346,7 +2404,7 @@
     <n v="3362.5"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="28"/>
+    <x v="30"/>
     <n v="2014"/>
   </r>
   <r>
@@ -2355,7 +2413,7 @@
     <n v="5615.28"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="29"/>
+    <x v="31"/>
     <n v="2016"/>
   </r>
   <r>
@@ -2364,7 +2422,7 @@
     <n v="10911"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="30"/>
+    <x v="32"/>
     <n v="2022"/>
   </r>
   <r>
@@ -2373,7 +2431,7 @@
     <n v="16"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="31"/>
+    <x v="33"/>
     <n v="2020"/>
   </r>
   <r>
@@ -2382,7 +2440,7 @@
     <n v="64.5"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="31"/>
+    <x v="33"/>
     <n v="2020"/>
   </r>
   <r>
@@ -2391,7 +2449,7 @@
     <n v="2080"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="32"/>
+    <x v="34"/>
     <n v="1982"/>
   </r>
   <r>
@@ -2409,7 +2467,7 @@
     <n v="1486"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="33"/>
+    <x v="35"/>
     <n v="2006"/>
   </r>
   <r>
@@ -2418,7 +2476,7 @@
     <n v="43.85"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2427,7 +2485,7 @@
     <n v="775.48"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="34"/>
+    <x v="37"/>
     <n v="2013"/>
   </r>
   <r>
@@ -2436,7 +2494,7 @@
     <n v="1930"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Descubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2445,7 +2503,7 @@
     <n v="3500"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="35"/>
+    <x v="38"/>
     <n v="1976"/>
   </r>
   <r>
@@ -2463,7 +2521,7 @@
     <n v="2241"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="32"/>
+    <x v="34"/>
     <n v="1982"/>
   </r>
   <r>
@@ -2481,7 +2539,7 @@
     <n v="9"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2490,7 +2548,7 @@
     <n v="6"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2499,7 +2557,7 @@
     <n v="58.7"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2517,7 +2575,7 @@
     <n v="6"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2526,7 +2584,7 @@
     <n v="525"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="36"/>
+    <x v="39"/>
     <n v="1965"/>
   </r>
   <r>
@@ -2535,7 +2593,7 @@
     <n v="2400"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="37"/>
+    <x v="40"/>
     <n v="2002"/>
   </r>
   <r>
@@ -2562,7 +2620,7 @@
     <n v="705"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="36"/>
+    <x v="39"/>
     <n v="1965"/>
   </r>
   <r>
@@ -2580,7 +2638,7 @@
     <n v="415.25"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="26"/>
     <s v=""/>
   </r>
   <r>
@@ -2589,7 +2647,7 @@
     <n v="5498"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="29"/>
+    <x v="31"/>
     <n v="2016"/>
   </r>
   <r>
@@ -2598,7 +2656,7 @@
     <n v="599.63"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Sin datos"/>
-    <x v="38"/>
+    <x v="41"/>
     <n v="2023"/>
   </r>
   <r>
@@ -2607,7 +2665,7 @@
     <n v="8009.47"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Sin datos"/>
-    <x v="38"/>
+    <x v="41"/>
     <n v="2023"/>
   </r>
   <r>
@@ -2616,7 +2674,7 @@
     <n v="2236"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Descubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2625,7 +2683,7 @@
     <n v="1155.2"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="42"/>
     <s v=""/>
   </r>
   <r>
@@ -2634,7 +2692,7 @@
     <n v="300"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="42"/>
     <s v=""/>
   </r>
   <r>
@@ -2643,7 +2701,7 @@
     <n v="250"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="43"/>
     <s v=""/>
   </r>
   <r>
@@ -2652,7 +2710,7 @@
     <n v="150"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="5"/>
     <s v=""/>
   </r>
   <r>
@@ -2661,7 +2719,7 @@
     <n v="100"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="5"/>
     <s v=""/>
   </r>
   <r>
@@ -2670,7 +2728,7 @@
     <n v="1377"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="19"/>
+    <x v="18"/>
     <n v="1974"/>
   </r>
   <r>
@@ -2679,7 +2737,7 @@
     <n v="1377"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="19"/>
+    <x v="18"/>
     <n v="1974"/>
   </r>
   <r>
@@ -2706,7 +2764,7 @@
     <n v="2353"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="39"/>
+    <x v="19"/>
     <n v="1985"/>
   </r>
   <r>
@@ -2715,7 +2773,7 @@
     <n v="42"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="13"/>
     <s v=""/>
   </r>
   <r>
@@ -2724,7 +2782,7 @@
     <n v="3087.8"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="40"/>
+    <x v="44"/>
     <n v="1992"/>
   </r>
   <r>
@@ -2733,7 +2791,7 @@
     <n v="330"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="45"/>
     <s v=""/>
   </r>
   <r>
@@ -2742,7 +2800,7 @@
     <n v="45.15"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="13"/>
     <s v=""/>
   </r>
   <r>
@@ -2751,7 +2809,7 @@
     <n v="45.85"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="13"/>
     <s v=""/>
   </r>
   <r>
@@ -2760,7 +2818,7 @@
     <n v="1452"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="41"/>
+    <x v="46"/>
     <n v="2004"/>
   </r>
   <r>
@@ -2769,7 +2827,7 @@
     <n v="72"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2778,7 +2836,7 @@
     <n v="740"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="42"/>
+    <x v="47"/>
     <n v="1996"/>
   </r>
   <r>
@@ -2787,7 +2845,7 @@
     <n v="1885"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Descubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -2796,7 +2854,7 @@
     <n v="260.60000000000002"/>
     <s v="Sin datos"/>
     <s v="Sin datos"/>
-    <x v="43"/>
+    <x v="48"/>
     <n v="2009"/>
   </r>
   <r>
@@ -2805,7 +2863,7 @@
     <n v="1047.3"/>
     <s v="Sin datos"/>
     <s v="Sin datos"/>
-    <x v="43"/>
+    <x v="48"/>
     <n v="2009"/>
   </r>
   <r>
@@ -2832,7 +2890,7 @@
     <n v="81.849999999999994"/>
     <s v="Sin datos"/>
     <s v="Cubierto"/>
-    <x v="30"/>
+    <x v="32"/>
     <n v="2022"/>
   </r>
   <r>
@@ -2841,7 +2899,7 @@
     <n v="140"/>
     <s v="Sin datos"/>
     <s v="Cubierto"/>
-    <x v="30"/>
+    <x v="32"/>
     <n v="2022"/>
   </r>
   <r>
@@ -2850,7 +2908,7 @@
     <n v="361.97"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="38"/>
+    <x v="41"/>
     <n v="2023"/>
   </r>
   <r>
@@ -2904,7 +2962,7 @@
     <n v="150"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="5"/>
     <s v=""/>
   </r>
   <r>
@@ -2913,7 +2971,7 @@
     <n v="70"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="5"/>
     <s v=""/>
   </r>
   <r>
@@ -2931,7 +2989,7 @@
     <n v="4800"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Descubierto"/>
-    <x v="18"/>
+    <x v="5"/>
     <s v=""/>
   </r>
   <r>
@@ -2940,7 +2998,7 @@
     <n v="243.8"/>
     <s v="Sin datos"/>
     <s v="Cubierto"/>
-    <x v="27"/>
+    <x v="29"/>
     <n v="2008"/>
   </r>
   <r>
@@ -2949,7 +3007,7 @@
     <n v="164"/>
     <s v="Sin datos"/>
     <s v="Cubierto"/>
-    <x v="27"/>
+    <x v="29"/>
     <n v="2008"/>
   </r>
   <r>
@@ -2958,7 +3016,7 @@
     <n v="334"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Descubierto"/>
-    <x v="27"/>
+    <x v="29"/>
     <n v="2008"/>
   </r>
   <r>
@@ -2976,7 +3034,7 @@
     <n v="252"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="28"/>
+    <x v="30"/>
     <n v="2014"/>
   </r>
   <r>
@@ -2994,7 +3052,7 @@
     <n v="220.07"/>
     <s v="Actividades docentes, administrativas e investigación"/>
     <s v="Cubierto"/>
-    <x v="30"/>
+    <x v="32"/>
     <n v="2022"/>
   </r>
   <r>
@@ -3003,7 +3061,7 @@
     <n v="10"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Cubierto"/>
-    <x v="18"/>
+    <x v="36"/>
     <s v=""/>
   </r>
   <r>
@@ -3012,7 +3070,7 @@
     <n v="418"/>
     <s v="Sin datos"/>
     <s v="Cubierto"/>
-    <x v="37"/>
+    <x v="40"/>
     <n v="2002"/>
   </r>
   <r>
@@ -3021,7 +3079,7 @@
     <n v="303"/>
     <s v="Sin datos"/>
     <s v="Cubierto"/>
-    <x v="37"/>
+    <x v="40"/>
     <n v="2002"/>
   </r>
   <r>
@@ -3030,7 +3088,7 @@
     <n v="860"/>
     <s v="Sin datos"/>
     <s v="Sin datos"/>
-    <x v="38"/>
+    <x v="41"/>
     <n v="2023"/>
   </r>
   <r>
@@ -3039,7 +3097,7 @@
     <n v="2633.11"/>
     <s v="Actividades deportivas,bienestar y otras"/>
     <s v="Sin datos"/>
-    <x v="38"/>
+    <x v="41"/>
     <n v="2023"/>
   </r>
   <r>
@@ -3048,15 +3106,15 @@
     <n v="2273.8000000000002"/>
     <s v="Sin datos"/>
     <s v="Sin datos"/>
-    <x v="18"/>
+    <x v="13"/>
     <s v=""/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86CFE8A7-9FA6-4B64-810D-EDA1BE14E767}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86CFE8A7-9FA6-4B64-810D-EDA1BE14E767}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -3064,51 +3122,56 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="45">
+      <items count="50">
         <item x="0"/>
+        <item x="42"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="27"/>
         <item x="21"/>
         <item x="4"/>
+        <item x="43"/>
         <item x="7"/>
         <item x="25"/>
-        <item x="36"/>
+        <item x="39"/>
         <item x="23"/>
         <item x="3"/>
-        <item x="19"/>
+        <item x="18"/>
         <item x="6"/>
-        <item x="35"/>
+        <item x="38"/>
         <item x="14"/>
         <item x="5"/>
-        <item x="32"/>
+        <item x="34"/>
         <item x="8"/>
-        <item x="39"/>
+        <item x="19"/>
         <item x="11"/>
         <item x="9"/>
         <item x="13"/>
         <item x="22"/>
-        <item x="40"/>
+        <item x="44"/>
         <item x="10"/>
         <item x="12"/>
-        <item x="42"/>
+        <item x="26"/>
+        <item x="47"/>
         <item x="20"/>
+        <item x="36"/>
         <item x="24"/>
+        <item x="40"/>
+        <item x="16"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="48"/>
+        <item x="15"/>
         <item x="37"/>
-        <item x="16"/>
+        <item x="30"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="32"/>
         <item x="41"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="43"/>
-        <item x="15"/>
-        <item x="34"/>
-        <item x="28"/>
-        <item x="17"/>
-        <item x="29"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="38"/>
-        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3117,7 +3180,7 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="50">
     <i>
       <x/>
     </i>
@@ -3249,6 +3312,21 @@
     </i>
     <i>
       <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
     </i>
     <i t="grand">
       <x/>
@@ -3589,10 +3667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F1DB7-6CF6-4454-9CF0-DDFBF8B9889F}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3600,7 +3678,9 @@
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3608,22 +3688,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3640,9 +3720,9 @@
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2">
+        <v>149</v>
+      </c>
+      <c r="F2" s="10">
         <v>1939</v>
       </c>
       <c r="G2">
@@ -3663,9 +3743,9 @@
         <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3">
+        <v>149</v>
+      </c>
+      <c r="F3" s="10">
         <v>1943</v>
       </c>
       <c r="G3">
@@ -3686,9 +3766,9 @@
         <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4">
+        <v>149</v>
+      </c>
+      <c r="F4" s="10">
         <v>1948</v>
       </c>
       <c r="G4">
@@ -3709,9 +3789,9 @@
         <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5">
+        <v>149</v>
+      </c>
+      <c r="F5" s="10">
         <v>1948</v>
       </c>
       <c r="G5">
@@ -3732,9 +3812,9 @@
         <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6">
+        <v>149</v>
+      </c>
+      <c r="F6" s="10">
         <v>1948</v>
       </c>
       <c r="G6">
@@ -3755,9 +3835,9 @@
         <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7">
+        <v>149</v>
+      </c>
+      <c r="F7" s="10">
         <v>1943</v>
       </c>
       <c r="G7">
@@ -3778,9 +3858,9 @@
         <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8">
+        <v>149</v>
+      </c>
+      <c r="F8" s="10">
         <v>1973</v>
       </c>
       <c r="G8">
@@ -3801,9 +3881,9 @@
         <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9">
+        <v>149</v>
+      </c>
+      <c r="F9" s="10">
         <v>1958</v>
       </c>
       <c r="G9">
@@ -3824,9 +3904,9 @@
         <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10">
+        <v>149</v>
+      </c>
+      <c r="F10" s="10">
         <v>1980</v>
       </c>
       <c r="G10">
@@ -3847,9 +3927,9 @@
         <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11">
+        <v>149</v>
+      </c>
+      <c r="F11" s="10">
         <v>1975</v>
       </c>
       <c r="G11">
@@ -3870,9 +3950,9 @@
         <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12">
+        <v>149</v>
+      </c>
+      <c r="F12" s="10">
         <v>1961</v>
       </c>
       <c r="G12">
@@ -3893,9 +3973,9 @@
         <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13">
+        <v>149</v>
+      </c>
+      <c r="F13" s="10">
         <v>1983</v>
       </c>
       <c r="G13">
@@ -3916,9 +3996,9 @@
         <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14">
+        <v>149</v>
+      </c>
+      <c r="F14" s="10">
         <v>1988</v>
       </c>
       <c r="G14">
@@ -3939,9 +4019,9 @@
         <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15">
+        <v>149</v>
+      </c>
+      <c r="F15" s="10">
         <v>1980</v>
       </c>
       <c r="G15">
@@ -3962,9 +4042,9 @@
         <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16">
+        <v>149</v>
+      </c>
+      <c r="F16" s="10">
         <v>1988</v>
       </c>
       <c r="G16">
@@ -3985,9 +4065,9 @@
         <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17">
+        <v>149</v>
+      </c>
+      <c r="F17" s="10">
         <v>1988</v>
       </c>
       <c r="G17">
@@ -4008,9 +4088,9 @@
         <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18">
+        <v>149</v>
+      </c>
+      <c r="F18" s="10">
         <v>1993</v>
       </c>
       <c r="G18">
@@ -4031,9 +4111,9 @@
         <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19">
+        <v>149</v>
+      </c>
+      <c r="F19" s="10">
         <v>1993</v>
       </c>
       <c r="G19">
@@ -4054,9 +4134,9 @@
         <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20">
+        <v>149</v>
+      </c>
+      <c r="F20" s="10">
         <v>1986</v>
       </c>
       <c r="G20">
@@ -4077,9 +4157,9 @@
         <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21">
+        <v>149</v>
+      </c>
+      <c r="F21" s="10">
         <v>1994</v>
       </c>
       <c r="G21">
@@ -4100,9 +4180,9 @@
         <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22">
+        <v>149</v>
+      </c>
+      <c r="F22" s="10">
         <v>1990</v>
       </c>
       <c r="G22">
@@ -4123,9 +4203,9 @@
         <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23">
+        <v>149</v>
+      </c>
+      <c r="F23" s="10">
         <v>1993</v>
       </c>
       <c r="G23">
@@ -4146,9 +4226,9 @@
         <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24">
+        <v>149</v>
+      </c>
+      <c r="F24" s="10">
         <v>1978</v>
       </c>
       <c r="G24">
@@ -4169,9 +4249,9 @@
         <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25">
+        <v>149</v>
+      </c>
+      <c r="F25" s="10">
         <v>2012</v>
       </c>
       <c r="G25">
@@ -4192,9 +4272,9 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26">
+        <v>149</v>
+      </c>
+      <c r="F26" s="10">
         <v>2003</v>
       </c>
       <c r="G26">
@@ -4215,9 +4295,9 @@
         <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27">
+        <v>149</v>
+      </c>
+      <c r="F27" s="10">
         <v>2015</v>
       </c>
       <c r="G27">
@@ -4238,9 +4318,9 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28">
+        <v>149</v>
+      </c>
+      <c r="F28" s="10">
         <v>1958</v>
       </c>
       <c r="G28">
@@ -4261,13 +4341,13 @@
         <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1990</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4284,9 +4364,9 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30">
+        <v>149</v>
+      </c>
+      <c r="F30" s="10">
         <v>1974</v>
       </c>
       <c r="G30">
@@ -4307,13 +4387,13 @@
         <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1985</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4330,9 +4410,9 @@
         <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32">
+        <v>149</v>
+      </c>
+      <c r="F32" s="10">
         <v>1998</v>
       </c>
       <c r="G32">
@@ -4353,9 +4433,9 @@
         <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33">
+        <v>149</v>
+      </c>
+      <c r="F33" s="10">
         <v>1943</v>
       </c>
       <c r="G33">
@@ -4376,13 +4456,13 @@
         <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1973</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4399,9 +4479,9 @@
         <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35">
+        <v>149</v>
+      </c>
+      <c r="F35" s="10">
         <v>1956</v>
       </c>
       <c r="G35">
@@ -4422,9 +4502,9 @@
         <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36">
+        <v>149</v>
+      </c>
+      <c r="F36" s="10">
         <v>2003</v>
       </c>
       <c r="G36">
@@ -4445,9 +4525,9 @@
         <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37">
+        <v>149</v>
+      </c>
+      <c r="F37" s="10">
         <v>1991</v>
       </c>
       <c r="G37">
@@ -4468,9 +4548,9 @@
         <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38">
+        <v>149</v>
+      </c>
+      <c r="F38" s="10">
         <v>2003</v>
       </c>
       <c r="G38">
@@ -4491,9 +4571,9 @@
         <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39">
+        <v>149</v>
+      </c>
+      <c r="F39" s="10">
         <v>1948</v>
       </c>
       <c r="G39">
@@ -4514,9 +4594,9 @@
         <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40">
+        <v>149</v>
+      </c>
+      <c r="F40" s="10">
         <v>1948</v>
       </c>
       <c r="G40">
@@ -4537,9 +4617,9 @@
         <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41">
+        <v>149</v>
+      </c>
+      <c r="F41" s="10">
         <v>1993</v>
       </c>
       <c r="G41">
@@ -4560,9 +4640,9 @@
         <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42">
+        <v>149</v>
+      </c>
+      <c r="F42" s="10">
         <v>1983</v>
       </c>
       <c r="G42">
@@ -4583,9 +4663,9 @@
         <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43">
+        <v>149</v>
+      </c>
+      <c r="F43" s="10">
         <v>1968</v>
       </c>
       <c r="G43">
@@ -4606,9 +4686,9 @@
         <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44">
+        <v>149</v>
+      </c>
+      <c r="F44" s="10">
         <v>1948</v>
       </c>
       <c r="G44">
@@ -4629,9 +4709,9 @@
         <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45">
+        <v>149</v>
+      </c>
+      <c r="F45" s="10">
         <v>1958</v>
       </c>
       <c r="G45">
@@ -4652,9 +4732,9 @@
         <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46">
+        <v>149</v>
+      </c>
+      <c r="F46" s="10">
         <v>2001</v>
       </c>
       <c r="G46">
@@ -4675,9 +4755,9 @@
         <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47">
+        <v>149</v>
+      </c>
+      <c r="F47" s="10">
         <v>1963</v>
       </c>
       <c r="G47">
@@ -4698,13 +4778,13 @@
         <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1995</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4721,13 +4801,13 @@
         <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1952</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4744,13 +4824,13 @@
         <v>147</v>
       </c>
       <c r="E50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1991</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4767,13 +4847,13 @@
         <v>147</v>
       </c>
       <c r="E51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1974</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4790,13 +4870,13 @@
         <v>146</v>
       </c>
       <c r="E52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1975</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4812,10 +4892,10 @@
       <c r="D53" t="s">
         <v>146</v>
       </c>
-      <c r="E53" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" s="10">
         <v>2007</v>
       </c>
       <c r="G53">
@@ -4835,10 +4915,10 @@
       <c r="D54" t="s">
         <v>146</v>
       </c>
-      <c r="E54" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="10">
         <v>2008</v>
       </c>
       <c r="G54">
@@ -4859,9 +4939,9 @@
         <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55">
+        <v>149</v>
+      </c>
+      <c r="F55" s="10">
         <v>2012</v>
       </c>
       <c r="G55">
@@ -4882,9 +4962,9 @@
         <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56">
+        <v>149</v>
+      </c>
+      <c r="F56" s="10">
         <v>2012</v>
       </c>
       <c r="G56">
@@ -4905,9 +4985,9 @@
         <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
-      </c>
-      <c r="F57">
+        <v>149</v>
+      </c>
+      <c r="F57" s="10">
         <v>2014</v>
       </c>
       <c r="G57">
@@ -4928,9 +5008,9 @@
         <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58">
+        <v>149</v>
+      </c>
+      <c r="F58" s="10">
         <v>2016</v>
       </c>
       <c r="G58">
@@ -4951,9 +5031,9 @@
         <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59">
+        <v>149</v>
+      </c>
+      <c r="F59" s="10">
         <v>2022</v>
       </c>
       <c r="G59">
@@ -4974,9 +5054,9 @@
         <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
-      </c>
-      <c r="F60">
+        <v>149</v>
+      </c>
+      <c r="F60" s="10">
         <v>2020</v>
       </c>
       <c r="G60">
@@ -4997,9 +5077,9 @@
         <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
-      </c>
-      <c r="F61">
+        <v>149</v>
+      </c>
+      <c r="F61" s="10">
         <v>2020</v>
       </c>
       <c r="G61">
@@ -5020,9 +5100,9 @@
         <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62">
+        <v>149</v>
+      </c>
+      <c r="F62" s="10">
         <v>1982</v>
       </c>
       <c r="G62">
@@ -5043,9 +5123,9 @@
         <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63">
+        <v>149</v>
+      </c>
+      <c r="F63" s="10">
         <v>1998</v>
       </c>
       <c r="G63">
@@ -5066,9 +5146,9 @@
         <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64">
+        <v>149</v>
+      </c>
+      <c r="F64" s="10">
         <v>2006</v>
       </c>
       <c r="G64">
@@ -5089,13 +5169,13 @@
         <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F65" s="11">
+        <v>2000</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5112,9 +5192,9 @@
         <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66">
+        <v>149</v>
+      </c>
+      <c r="F66" s="10">
         <v>2013</v>
       </c>
       <c r="G66">
@@ -5135,13 +5215,13 @@
         <v>147</v>
       </c>
       <c r="E67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5158,9 +5238,9 @@
         <v>146</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
-      </c>
-      <c r="F68">
+        <v>149</v>
+      </c>
+      <c r="F68" s="10">
         <v>1976</v>
       </c>
       <c r="G68">
@@ -5181,9 +5261,9 @@
         <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69">
+        <v>149</v>
+      </c>
+      <c r="F69" s="10">
         <v>1978</v>
       </c>
       <c r="G69">
@@ -5204,9 +5284,9 @@
         <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
-      </c>
-      <c r="F70">
+        <v>149</v>
+      </c>
+      <c r="F70" s="10">
         <v>1982</v>
       </c>
       <c r="G70">
@@ -5227,9 +5307,9 @@
         <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
-      </c>
-      <c r="F71">
+        <v>149</v>
+      </c>
+      <c r="F71" s="10">
         <v>1990</v>
       </c>
       <c r="G71">
@@ -5250,13 +5330,13 @@
         <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F72" s="11">
+        <v>2000</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -5273,13 +5353,13 @@
         <v>146</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F73" s="11">
+        <v>2000</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5296,13 +5376,13 @@
         <v>146</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F74" s="11">
+        <v>2000</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -5319,9 +5399,9 @@
         <v>146</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
-      </c>
-      <c r="F75">
+        <v>149</v>
+      </c>
+      <c r="F75" s="10">
         <v>1994</v>
       </c>
       <c r="G75">
@@ -5342,13 +5422,13 @@
         <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F76" s="11">
+        <v>2000</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5365,9 +5445,9 @@
         <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
-      </c>
-      <c r="F77">
+        <v>149</v>
+      </c>
+      <c r="F77" s="10">
         <v>1965</v>
       </c>
       <c r="G77">
@@ -5388,9 +5468,9 @@
         <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
-      </c>
-      <c r="F78">
+        <v>149</v>
+      </c>
+      <c r="F78" s="10">
         <v>2002</v>
       </c>
       <c r="G78">
@@ -5411,9 +5491,9 @@
         <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
-      </c>
-      <c r="F79">
+        <v>149</v>
+      </c>
+      <c r="F79" s="10">
         <v>1998</v>
       </c>
       <c r="G79">
@@ -5434,9 +5514,9 @@
         <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>150</v>
-      </c>
-      <c r="F80">
+        <v>149</v>
+      </c>
+      <c r="F80" s="10">
         <v>1980</v>
       </c>
       <c r="G80">
@@ -5457,9 +5537,9 @@
         <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>150</v>
-      </c>
-      <c r="F81">
+        <v>149</v>
+      </c>
+      <c r="F81" s="10">
         <v>1965</v>
       </c>
       <c r="G81">
@@ -5480,9 +5560,9 @@
         <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
-      </c>
-      <c r="F82">
+        <v>149</v>
+      </c>
+      <c r="F82" s="10">
         <v>2012</v>
       </c>
       <c r="G82">
@@ -5503,13 +5583,13 @@
         <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F83" s="11">
+        <v>1995</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5526,9 +5606,9 @@
         <v>146</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
-      </c>
-      <c r="F84">
+        <v>149</v>
+      </c>
+      <c r="F84" s="10">
         <v>2016</v>
       </c>
       <c r="G84">
@@ -5548,10 +5628,10 @@
       <c r="D85" t="s">
         <v>146</v>
       </c>
-      <c r="E85" t="s">
-        <v>148</v>
-      </c>
-      <c r="F85">
+      <c r="E85" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="10">
         <v>2023</v>
       </c>
       <c r="G85">
@@ -5571,10 +5651,10 @@
       <c r="D86" t="s">
         <v>146</v>
       </c>
-      <c r="E86" t="s">
-        <v>148</v>
-      </c>
-      <c r="F86">
+      <c r="E86" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F86" s="10">
         <v>2023</v>
       </c>
       <c r="G86">
@@ -5595,13 +5675,13 @@
         <v>147</v>
       </c>
       <c r="E87" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5618,13 +5698,13 @@
         <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1942</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5641,13 +5721,13 @@
         <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F89" s="11">
+        <v>1942</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -5664,13 +5744,13 @@
         <v>147</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1960</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5687,13 +5767,13 @@
         <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1980</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -5710,13 +5790,13 @@
         <v>146</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1980</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5733,9 +5813,9 @@
         <v>146</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
-      </c>
-      <c r="F93">
+        <v>149</v>
+      </c>
+      <c r="F93" s="10">
         <v>1974</v>
       </c>
       <c r="G93">
@@ -5756,9 +5836,9 @@
         <v>146</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
-      </c>
-      <c r="F94">
+        <v>149</v>
+      </c>
+      <c r="F94" s="10">
         <v>1974</v>
       </c>
       <c r="G94">
@@ -5779,9 +5859,9 @@
         <v>146</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F95">
+        <v>149</v>
+      </c>
+      <c r="F95" s="10">
         <v>1998</v>
       </c>
       <c r="G95">
@@ -5802,9 +5882,9 @@
         <v>146</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
-      </c>
-      <c r="F96">
+        <v>149</v>
+      </c>
+      <c r="F96" s="10">
         <v>1980</v>
       </c>
       <c r="G96">
@@ -5825,9 +5905,9 @@
         <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
-      </c>
-      <c r="F97">
+        <v>149</v>
+      </c>
+      <c r="F97" s="10">
         <v>1985</v>
       </c>
       <c r="G97">
@@ -5848,13 +5928,13 @@
         <v>146</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F98" s="11">
+        <v>1990</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -5871,9 +5951,9 @@
         <v>146</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
-      </c>
-      <c r="F99">
+        <v>149</v>
+      </c>
+      <c r="F99" s="10">
         <v>1992</v>
       </c>
       <c r="G99">
@@ -5894,13 +5974,13 @@
         <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F100" s="11">
+        <v>2005</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -5917,13 +5997,13 @@
         <v>146</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F101" s="11">
+        <v>1990</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -5940,13 +6020,13 @@
         <v>146</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F102" s="11">
+        <v>1990</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -5963,9 +6043,9 @@
         <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>150</v>
-      </c>
-      <c r="F103">
+        <v>149</v>
+      </c>
+      <c r="F103" s="10">
         <v>2004</v>
       </c>
       <c r="G103">
@@ -5986,13 +6066,13 @@
         <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F104" s="11">
+        <v>2000</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -6009,9 +6089,9 @@
         <v>147</v>
       </c>
       <c r="E105" t="s">
-        <v>150</v>
-      </c>
-      <c r="F105">
+        <v>149</v>
+      </c>
+      <c r="F105" s="10">
         <v>1996</v>
       </c>
       <c r="G105">
@@ -6032,13 +6112,13 @@
         <v>147</v>
       </c>
       <c r="E106" t="s">
+        <v>150</v>
+      </c>
+      <c r="F106" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -6051,13 +6131,13 @@
       <c r="C107" s="4">
         <v>260.60000000000002</v>
       </c>
-      <c r="D107" t="s">
-        <v>148</v>
-      </c>
-      <c r="E107" t="s">
-        <v>148</v>
-      </c>
-      <c r="F107">
+      <c r="D107" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F107" s="10">
         <v>2009</v>
       </c>
       <c r="G107">
@@ -6074,13 +6154,13 @@
       <c r="C108" s="4">
         <v>1047.3</v>
       </c>
-      <c r="D108" t="s">
-        <v>148</v>
-      </c>
-      <c r="E108" t="s">
-        <v>148</v>
-      </c>
-      <c r="F108">
+      <c r="D108" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F108" s="10">
         <v>2009</v>
       </c>
       <c r="G108">
@@ -6101,9 +6181,9 @@
         <v>146</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
-      </c>
-      <c r="F109">
+        <v>149</v>
+      </c>
+      <c r="F109" s="10">
         <v>2012</v>
       </c>
       <c r="G109">
@@ -6124,9 +6204,9 @@
         <v>146</v>
       </c>
       <c r="E110" t="s">
-        <v>150</v>
-      </c>
-      <c r="F110">
+        <v>149</v>
+      </c>
+      <c r="F110" s="10">
         <v>2015</v>
       </c>
       <c r="G110">
@@ -6143,13 +6223,13 @@
       <c r="C111" s="4">
         <v>81.849999999999994</v>
       </c>
-      <c r="D111" t="s">
-        <v>148</v>
+      <c r="D111" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
-      </c>
-      <c r="F111">
+        <v>149</v>
+      </c>
+      <c r="F111" s="10">
         <v>2022</v>
       </c>
       <c r="G111">
@@ -6166,13 +6246,13 @@
       <c r="C112" s="4">
         <v>140</v>
       </c>
-      <c r="D112" t="s">
-        <v>148</v>
+      <c r="D112" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
-      </c>
-      <c r="F112">
+        <v>149</v>
+      </c>
+      <c r="F112" s="10">
         <v>2022</v>
       </c>
       <c r="G112">
@@ -6193,9 +6273,9 @@
         <v>146</v>
       </c>
       <c r="E113" t="s">
-        <v>150</v>
-      </c>
-      <c r="F113">
+        <v>149</v>
+      </c>
+      <c r="F113" s="10">
         <v>2023</v>
       </c>
       <c r="G113">
@@ -6216,9 +6296,9 @@
         <v>146</v>
       </c>
       <c r="E114" t="s">
-        <v>150</v>
-      </c>
-      <c r="F114">
+        <v>149</v>
+      </c>
+      <c r="F114" s="10">
         <v>1980</v>
       </c>
       <c r="G114">
@@ -6239,9 +6319,9 @@
         <v>146</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
-      </c>
-      <c r="F115">
+        <v>149</v>
+      </c>
+      <c r="F115" s="10">
         <v>1980</v>
       </c>
       <c r="G115">
@@ -6262,9 +6342,9 @@
         <v>146</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
-      </c>
-      <c r="F116">
+        <v>149</v>
+      </c>
+      <c r="F116" s="10">
         <v>1980</v>
       </c>
       <c r="G116">
@@ -6285,9 +6365,9 @@
         <v>146</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
-      </c>
-      <c r="F117">
+        <v>149</v>
+      </c>
+      <c r="F117" s="10">
         <v>1980</v>
       </c>
       <c r="G117">
@@ -6308,9 +6388,9 @@
         <v>146</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
-      </c>
-      <c r="F118">
+        <v>149</v>
+      </c>
+      <c r="F118" s="10">
         <v>1980</v>
       </c>
       <c r="G118">
@@ -6331,13 +6411,13 @@
         <v>146</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F119" s="11">
+        <v>1980</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -6354,13 +6434,13 @@
         <v>146</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F120" s="11">
+        <v>1980</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -6377,9 +6457,9 @@
         <v>146</v>
       </c>
       <c r="E121" t="s">
-        <v>150</v>
-      </c>
-      <c r="F121">
+        <v>149</v>
+      </c>
+      <c r="F121" s="10">
         <v>1994</v>
       </c>
       <c r="G121">
@@ -6400,13 +6480,13 @@
         <v>146</v>
       </c>
       <c r="E122" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122" s="11">
+        <v>1980</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -6419,13 +6499,13 @@
       <c r="C123" s="4">
         <v>243.8</v>
       </c>
-      <c r="D123" t="s">
-        <v>148</v>
+      <c r="D123" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E123" t="s">
-        <v>150</v>
-      </c>
-      <c r="F123">
+        <v>149</v>
+      </c>
+      <c r="F123" s="10">
         <v>2008</v>
       </c>
       <c r="G123">
@@ -6442,13 +6522,13 @@
       <c r="C124" s="4">
         <v>164</v>
       </c>
-      <c r="D124" t="s">
-        <v>148</v>
+      <c r="D124" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E124" t="s">
-        <v>150</v>
-      </c>
-      <c r="F124">
+        <v>149</v>
+      </c>
+      <c r="F124" s="10">
         <v>2008</v>
       </c>
       <c r="G124">
@@ -6469,9 +6549,9 @@
         <v>146</v>
       </c>
       <c r="E125" t="s">
-        <v>151</v>
-      </c>
-      <c r="F125">
+        <v>150</v>
+      </c>
+      <c r="F125" s="10">
         <v>2008</v>
       </c>
       <c r="G125">
@@ -6492,9 +6572,9 @@
         <v>147</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
-      </c>
-      <c r="F126">
+        <v>149</v>
+      </c>
+      <c r="F126" s="10">
         <v>2012</v>
       </c>
       <c r="G126">
@@ -6515,9 +6595,9 @@
         <v>146</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
-      </c>
-      <c r="F127">
+        <v>149</v>
+      </c>
+      <c r="F127" s="10">
         <v>2014</v>
       </c>
       <c r="G127">
@@ -6534,13 +6614,13 @@
       <c r="C128" s="4">
         <v>18.75</v>
       </c>
-      <c r="D128" t="s">
-        <v>148</v>
+      <c r="D128" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E128" t="s">
-        <v>150</v>
-      </c>
-      <c r="F128">
+        <v>149</v>
+      </c>
+      <c r="F128" s="10">
         <v>1980</v>
       </c>
       <c r="G128">
@@ -6561,9 +6641,9 @@
         <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>150</v>
-      </c>
-      <c r="F129">
+        <v>149</v>
+      </c>
+      <c r="F129" s="10">
         <v>2022</v>
       </c>
       <c r="G129">
@@ -6584,13 +6664,13 @@
         <v>147</v>
       </c>
       <c r="E130" t="s">
-        <v>150</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F130" s="11">
+        <v>2000</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -6603,13 +6683,13 @@
       <c r="C131" s="4">
         <v>418</v>
       </c>
-      <c r="D131" t="s">
-        <v>148</v>
+      <c r="D131" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E131" t="s">
-        <v>150</v>
-      </c>
-      <c r="F131">
+        <v>149</v>
+      </c>
+      <c r="F131" s="10">
         <v>2002</v>
       </c>
       <c r="G131">
@@ -6626,13 +6706,13 @@
       <c r="C132" s="4">
         <v>303</v>
       </c>
-      <c r="D132" t="s">
-        <v>148</v>
+      <c r="D132" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E132" t="s">
-        <v>150</v>
-      </c>
-      <c r="F132">
+        <v>149</v>
+      </c>
+      <c r="F132" s="10">
         <v>2002</v>
       </c>
       <c r="G132">
@@ -6649,13 +6729,13 @@
       <c r="C133" s="4">
         <v>860</v>
       </c>
-      <c r="D133" t="s">
-        <v>148</v>
-      </c>
-      <c r="E133" t="s">
-        <v>148</v>
-      </c>
-      <c r="F133">
+      <c r="D133" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F133" s="10">
         <v>2023</v>
       </c>
       <c r="G133">
@@ -6675,10 +6755,10 @@
       <c r="D134" t="s">
         <v>147</v>
       </c>
-      <c r="E134" t="s">
-        <v>148</v>
-      </c>
-      <c r="F134">
+      <c r="E134" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F134" s="10">
         <v>2023</v>
       </c>
       <c r="G134">
@@ -6696,17 +6776,27 @@
       <c r="C135" s="4">
         <v>2273.8000000000002</v>
       </c>
-      <c r="D135" t="s">
-        <v>148</v>
-      </c>
-      <c r="E135" t="s">
-        <v>148</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>152</v>
+      <c r="D135" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F135" s="11">
+        <v>1990</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6716,38 +6806,655 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8EC6A2-F319-4631-9071-71FEFEC4D859}">
-  <dimension ref="A3:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D1147-85E2-4253-9600-41229C73386F}">
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>855537</v>
+      </c>
+      <c r="C2" s="4">
+        <v>61178</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2/B2</f>
+        <v>7.150830414114176E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4">
+        <v>32591</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3766</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D7" si="0">C3/B3</f>
+        <v>0.11555337363075696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4">
+        <v>114404.04</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14712</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12859685724385259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="4">
+        <v>99722</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10979</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11009606706644472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="4">
+        <v>21122</v>
+      </c>
+      <c r="C6" s="4">
+        <v>721</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4135025092320803E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6282.83</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1316.5550000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.20954808581483186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59"/>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60"/>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61"/>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62"/>
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63"/>
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65"/>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66"/>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67"/>
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71"/>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79"/>
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85"/>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C88"/>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C89"/>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C90"/>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C91"/>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C92"/>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C93"/>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C94"/>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C95"/>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C96"/>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97"/>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98"/>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99"/>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100"/>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101"/>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C102"/>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C103"/>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C104"/>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C105"/>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C106"/>
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C107"/>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C108"/>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C109"/>
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C110"/>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C111"/>
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C112"/>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C113"/>
+      <c r="D113"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C114"/>
+      <c r="D114"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C115"/>
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C116"/>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C117"/>
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C118"/>
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C119"/>
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C120"/>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C121"/>
+      <c r="D121"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C122"/>
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C123"/>
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C124"/>
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C125"/>
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+      <c r="D126"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C127"/>
+      <c r="D127"/>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C128"/>
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C129"/>
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C130"/>
+      <c r="D130"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8EC6A2-F319-4631-9071-71FEFEC4D859}">
+  <dimension ref="A3:D53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1939</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4">
@@ -6761,110 +7468,110 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>1943</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+        <v>1942</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C46" si="0">A5</f>
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D47" si="1">D4+B5</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>1948</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
+        <v>1943</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>1956</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>1948</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>1958</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
+        <v>1952</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1961</v>
-      </c>
-      <c r="B9">
+        <v>1956</v>
+      </c>
+      <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>1963</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>1958</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1965</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>1960</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
@@ -6873,14 +7580,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>1968</v>
-      </c>
-      <c r="B12">
+        <v>1961</v>
+      </c>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
@@ -6889,14 +7596,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>1973</v>
-      </c>
-      <c r="B13">
+        <v>1963</v>
+      </c>
+      <c r="B13" s="8">
         <v>1</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1973</v>
+        <v>1963</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
@@ -6905,46 +7612,46 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>1974</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
+        <v>1965</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>1975</v>
-      </c>
-      <c r="B15">
+        <v>1968</v>
+      </c>
+      <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>1976</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+        <v>1973</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -6953,502 +7660,585 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>1978</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
+        <v>1974</v>
+      </c>
+      <c r="B17" s="8">
+        <v>4</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>1980</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
+        <v>1975</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>1982</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+        <v>1976</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>1983</v>
-      </c>
-      <c r="B20">
+        <v>1978</v>
+      </c>
+      <c r="B20" s="8">
         <v>2</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>1985</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>1980</v>
+      </c>
+      <c r="B21" s="8">
+        <v>15</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>1986</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>1982</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>1988</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
+        <v>1983</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>1990</v>
-      </c>
-      <c r="B24">
+        <v>1985</v>
+      </c>
+      <c r="B24" s="8">
         <v>2</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>1991</v>
-      </c>
-      <c r="B25">
+        <v>1986</v>
+      </c>
+      <c r="B25" s="8">
         <v>1</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>1992</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>1988</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>1993</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
+        <v>1990</v>
+      </c>
+      <c r="B27" s="8">
+        <v>7</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>1994</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
+        <v>1991</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>1996</v>
-      </c>
-      <c r="B29">
+        <v>1992</v>
+      </c>
+      <c r="B29" s="8">
         <v>1</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>1998</v>
-      </c>
-      <c r="B30">
+        <v>1993</v>
+      </c>
+      <c r="B30" s="8">
         <v>4</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
+        <v>1994</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
+        <v>1995</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>2003</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
+        <v>1996</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>2004</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
+        <v>1998</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
+        <v>2000</v>
+      </c>
+      <c r="B35" s="8">
+        <v>10</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B36">
+        <v>2001</v>
+      </c>
+      <c r="B36" s="8">
         <v>1</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
+        <v>2002</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>2009</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
+        <v>2003</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
+        <v>2004</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B40">
+        <v>2005</v>
+      </c>
+      <c r="B40" s="8">
         <v>1</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
+        <v>2006</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
+        <v>2007</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
+        <v>2008</v>
+      </c>
+      <c r="B43" s="8">
+        <v>4</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B44">
+        <v>2009</v>
+      </c>
+      <c r="B44" s="8">
         <v>2</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
+        <v>2012</v>
+      </c>
+      <c r="B45" s="8">
+        <v>6</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
+        <v>2013</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47">
-        <v>32</v>
+      <c r="A47" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>2024</v>
+        <f t="shared" ref="C47:C52" si="2">A47</f>
+        <v>2014</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D47:D52" si="3">D46+B47</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="8">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="8">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="8">
         <v>134</v>
       </c>
     </row>
